--- a/Projeto_01_A_Grupo_10.xlsx
+++ b/Projeto_01_A_Grupo_10.xlsx
@@ -1,12 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\37108032\Desktop\Edson\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A326274E-24D3-4A75-BEAF-3ECE38A33575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Projeto 1-A" sheetId="1" r:id="rId4"/>
+    <sheet name="Projeto 1-A" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -509,36 +531,41 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="6">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font/>
-    <font>
-      <b/>
-      <sz val="12.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1F1F1F"/>
       <name val="&quot;Google Sans&quot;"/>
     </font>
@@ -548,7 +575,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -581,59 +608,89 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
-    <border/>
+  <borders count="20">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -643,16 +700,25 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -664,6 +730,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -672,6 +740,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -680,9 +751,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -697,273 +770,333 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="85">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="12" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -974,11 +1107,17 @@
     <xdr:ext cx="1238250" cy="238125"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Imagem"/>
+        <xdr:cNvPr id="2" name="image2.png" title="Imagem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1002,11 +1141,17 @@
     <xdr:ext cx="209550" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="3" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1030,11 +1175,17 @@
     <xdr:ext cx="438150" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Imagem"/>
+        <xdr:cNvPr id="4" name="image3.png" title="Imagem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1058,11 +1209,17 @@
     <xdr:ext cx="495300" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Imagem"/>
+        <xdr:cNvPr id="5" name="image4.png" title="Imagem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1086,11 +1243,17 @@
     <xdr:ext cx="485775" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png"/>
+        <xdr:cNvPr id="6" name="image8.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1114,11 +1277,17 @@
     <xdr:ext cx="180975" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image19.png"/>
+        <xdr:cNvPr id="7" name="image19.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1142,11 +1311,17 @@
     <xdr:ext cx="428625" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Imagem"/>
+        <xdr:cNvPr id="8" name="image5.png" title="Imagem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1170,11 +1345,17 @@
     <xdr:ext cx="209550" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image23.png" title="Imagem"/>
+        <xdr:cNvPr id="9" name="image23.png" title="Imagem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1198,11 +1379,17 @@
     <xdr:ext cx="371475" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Formula módulo transversal&#10;" id="0" name="image25.png" title="Imagem"/>
+        <xdr:cNvPr id="10" name="image25.png" descr="Formula módulo transversal&#10;" title="Imagem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1226,11 +1413,17 @@
     <xdr:ext cx="571500" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image17.png" title="Imagem"/>
+        <xdr:cNvPr id="11" name="image17.png" title="Imagem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1254,11 +1447,17 @@
     <xdr:ext cx="619125" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="Imagem"/>
+        <xdr:cNvPr id="12" name="image7.png" title="Imagem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1282,11 +1481,17 @@
     <xdr:ext cx="1266825" cy="323850"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.jpg"/>
+        <xdr:cNvPr id="13" name="image10.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1310,11 +1515,17 @@
     <xdr:ext cx="1152525" cy="352425"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.jpg"/>
+        <xdr:cNvPr id="14" name="image11.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1338,11 +1549,17 @@
     <xdr:ext cx="628650" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image16.jpg"/>
+        <xdr:cNvPr id="15" name="image16.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1366,11 +1583,17 @@
     <xdr:ext cx="1543050" cy="561975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.jpg"/>
+        <xdr:cNvPr id="16" name="image9.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1394,11 +1617,17 @@
     <xdr:ext cx="504825" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="Imagem"/>
+        <xdr:cNvPr id="17" name="image6.png" title="Imagem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1422,11 +1651,17 @@
     <xdr:ext cx="885825" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.jpg"/>
+        <xdr:cNvPr id="18" name="image12.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1450,11 +1685,17 @@
     <xdr:ext cx="1228725" cy="533400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image15.png" title="Imagem"/>
+        <xdr:cNvPr id="19" name="image15.png" title="Imagem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1478,11 +1719,17 @@
     <xdr:ext cx="409575" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image21.png" title="Imagem"/>
+        <xdr:cNvPr id="20" name="image21.png" title="Imagem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1506,11 +1753,17 @@
     <xdr:ext cx="400050" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.png" title="Imagem"/>
+        <xdr:cNvPr id="21" name="image14.png" title="Imagem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1534,11 +1787,17 @@
     <xdr:ext cx="476250" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.png"/>
+        <xdr:cNvPr id="22" name="image13.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1562,11 +1821,17 @@
     <xdr:ext cx="619125" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image24.png" title="Imagem"/>
+        <xdr:cNvPr id="23" name="image24.png" title="Imagem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId22"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1590,11 +1855,17 @@
     <xdr:ext cx="1876425" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image22.png" title="Imagem"/>
+        <xdr:cNvPr id="24" name="image22.png" title="Imagem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId23"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1618,11 +1889,17 @@
     <xdr:ext cx="361950" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image20.png" title="Imagem"/>
+        <xdr:cNvPr id="25" name="image20.png" title="Imagem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId24"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1646,11 +1923,17 @@
     <xdr:ext cx="581025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image18.png" title="Imagem"/>
+        <xdr:cNvPr id="26" name="image18.png" title="Imagem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId25"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1668,7 +1951,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1858,1864 +2141,1949 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A2:O93"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.38"/>
-    <col customWidth="1" min="2" max="2" width="31.13"/>
-    <col customWidth="1" min="3" max="3" width="33.88"/>
-    <col customWidth="1" min="4" max="4" width="18.88"/>
-    <col customWidth="1" min="5" max="5" width="20.63"/>
-    <col customWidth="1" min="6" max="6" width="16.25"/>
-    <col customWidth="1" min="7" max="7" width="13.0"/>
-    <col customWidth="1" min="8" max="8" width="16.63"/>
-    <col customWidth="1" min="10" max="10" width="32.5"/>
-    <col customWidth="1" min="11" max="11" width="50.63"/>
-    <col customWidth="1" min="12" max="12" width="32.13"/>
-    <col customWidth="1" min="13" max="13" width="17.25"/>
-    <col customWidth="1" min="14" max="14" width="29.13"/>
-    <col customWidth="1" min="15" max="15" width="23.5"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="32.44140625" customWidth="1"/>
+    <col min="11" max="11" width="47" customWidth="1"/>
+    <col min="12" max="12" width="32.109375" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" customWidth="1"/>
+    <col min="14" max="14" width="29.109375" customWidth="1"/>
+    <col min="15" max="15" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" ht="13.2">
+      <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="42"/>
+    </row>
+    <row r="3" spans="1:5" ht="13.2">
+      <c r="A3" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="49"/>
+    </row>
+    <row r="4" spans="1:5" ht="13.2">
+      <c r="A4" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="11" t="s">
+      <c r="D4" s="60"/>
+      <c r="E4" s="51"/>
+    </row>
+    <row r="5" spans="1:5" ht="13.2">
+      <c r="A5" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11">
-        <v>589403.0</v>
-      </c>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="11" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="61">
+        <v>589403</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="40"/>
+    </row>
+    <row r="6" spans="1:5" ht="13.2">
+      <c r="A6" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11">
-        <v>760873.0</v>
-      </c>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="61">
+        <v>760873</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="40"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.2">
+      <c r="A7" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="7">
-        <v>744744.0</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="13" t="s">
+      <c r="B7" s="57"/>
+      <c r="C7" s="58">
+        <v>744744</v>
+      </c>
+      <c r="D7" s="57"/>
+      <c r="E7" s="49"/>
+    </row>
+    <row r="10" spans="1:5" ht="13.2">
+      <c r="A10" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="16"/>
-      <c r="B11" s="13" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.2">
+      <c r="A11" s="73"/>
+      <c r="B11" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="18">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="19" t="s">
+      <c r="D11" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.2">
+      <c r="A12" s="73"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="20">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="19" t="s">
+      <c r="D12" s="6">
         <v>12</v>
       </c>
-      <c r="D13" s="20">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="19" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="13.2">
+      <c r="A13" s="73"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.2">
+      <c r="A14" s="73"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="20">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="19" t="s">
+      <c r="D14" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.2">
+      <c r="A15" s="73"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="20">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="16"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22" t="s">
+      <c r="D15" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="26.4">
+      <c r="A16" s="73"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="23">
-        <v>18000.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="16"/>
-      <c r="B17" s="13" t="s">
+      <c r="D16" s="8">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="13.2">
+      <c r="A17" s="73"/>
+      <c r="B17" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="16"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="25" t="s">
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" ht="13.2">
+      <c r="A18" s="73"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="16"/>
-      <c r="B19" s="13" t="s">
+    <row r="19" spans="1:4" ht="13.2">
+      <c r="A19" s="73"/>
+      <c r="B19" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="20">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="16"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="19" t="s">
+      <c r="D19" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="13.2">
+      <c r="A20" s="73"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="20">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="16"/>
-      <c r="B21" s="13" t="s">
+      <c r="D20" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="13.2">
+      <c r="A21" s="73"/>
+      <c r="B21" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="18">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="16"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="25" t="s">
+      <c r="D21" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="13.2">
+      <c r="A22" s="73"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="6">
         <f>745.7*D21</f>
-        <v>4474.2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="16"/>
-      <c r="B23" s="13" t="s">
+        <v>4474.2000000000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="13.2">
+      <c r="A23" s="73"/>
+      <c r="B23" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="18">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="26" t="s">
+      <c r="D23" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="26.4">
+      <c r="A24" s="73"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="20">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="22" t="s">
+      <c r="D24" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="39.6">
+      <c r="A25" s="73"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="16"/>
-      <c r="B26" s="27" t="s">
+    <row r="26" spans="1:4" ht="39.6">
+      <c r="A26" s="73"/>
+      <c r="B26" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="16"/>
-      <c r="B27" s="13" t="s">
+    <row r="27" spans="1:4" ht="13.2">
+      <c r="A27" s="73"/>
+      <c r="B27" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="30" t="s">
+    <row r="28" spans="1:4" ht="26.4">
+      <c r="A28" s="73"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="20">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="26" t="s">
+      <c r="D28" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="26.4">
+      <c r="A29" s="73"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="6">
         <f>RADIANS(D28)</f>
-        <v>0.436332313</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="16"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="25" t="s">
+        <v>0.43633231299858238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="13.2">
+      <c r="A30" s="73"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="16"/>
-      <c r="B31" s="31" t="s">
+      <c r="D30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="13.2">
+      <c r="A31" s="73"/>
+      <c r="B31" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="32" t="s">
+    <row r="32" spans="1:4" ht="26.4">
+      <c r="A32" s="73"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="20">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="26" t="s">
+      <c r="D32" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="26.4">
+      <c r="A33" s="73"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="6">
         <f>RADIANS(D32)</f>
-        <v>0.436332313</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="33" t="s">
+        <v>0.43633231299858238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="13.2">
+      <c r="A34" s="73"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="20">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="19" t="s">
+      <c r="D34" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="13.2">
+      <c r="A35" s="73"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="6">
         <f>RADIANS(D34)</f>
-        <v>0.1745329252</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="16"/>
-      <c r="B36" s="13" t="s">
+        <v>0.17453292519943295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="13.2">
+      <c r="A36" s="73"/>
+      <c r="B36" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="34"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="26" t="s">
+      <c r="C36" s="2"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:15" ht="26.4">
+      <c r="A37" s="73"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="19" t="s">
+    <row r="38" spans="1:15" ht="13.2">
+      <c r="A38" s="73"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="20">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="16"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="25" t="s">
+      <c r="D38" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="13.2">
+      <c r="A39" s="73"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="23">
-        <v>90.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="16"/>
-      <c r="B40" s="13" t="s">
+      <c r="D39" s="8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="13.2">
+      <c r="A40" s="73"/>
+      <c r="B40" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="34"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="19" t="s">
+      <c r="C40" s="2"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:15" ht="13.2">
+      <c r="A41" s="73"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="19" t="s">
+    <row r="42" spans="1:15" ht="13.2">
+      <c r="A42" s="73"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="20">
-        <v>240.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="16"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="37" t="s">
+      <c r="D42" s="6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="39.6">
+      <c r="A43" s="73"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="16"/>
-      <c r="B44" s="13" t="s">
+    <row r="44" spans="1:15" ht="26.4">
+      <c r="A44" s="73"/>
+      <c r="B44" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="38" t="s">
+      <c r="C44" s="2"/>
+      <c r="D44" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="19" t="s">
+    <row r="45" spans="1:15" ht="13.2">
+      <c r="A45" s="73"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="20">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="16"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="39" t="s">
+      <c r="D45" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="52.8">
+      <c r="A46" s="73"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="40" t="s">
+      <c r="D46" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="M46" s="41"/>
-      <c r="N46" s="41"/>
-      <c r="O46" s="41"/>
-    </row>
-    <row r="47" ht="47.25" customHeight="1">
-      <c r="A47" s="16"/>
-      <c r="B47" s="13" t="s">
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
+    </row>
+    <row r="47" spans="1:15" ht="47.25" customHeight="1">
+      <c r="A47" s="73"/>
+      <c r="B47" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="42" t="s">
+      <c r="C47" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D47" s="38">
+      <c r="D47" s="17">
         <f>D20*60/(D19/2)</f>
         <v>1200</v>
       </c>
-      <c r="E47" s="37" t="s">
+      <c r="E47" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F47" s="43"/>
-      <c r="M47" s="44"/>
-    </row>
-    <row r="48" ht="40.5" customHeight="1">
-      <c r="A48" s="42"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="39" t="s">
+      <c r="F47" s="84"/>
+      <c r="M47" s="23"/>
+    </row>
+    <row r="48" spans="1:15" ht="40.5" customHeight="1">
+      <c r="A48" s="73"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D48" s="45">
+      <c r="D48" s="24">
         <f>(D47*2*PI())/60</f>
-        <v>125.6637061</v>
-      </c>
-      <c r="M48" s="44"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="42"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="26"/>
-      <c r="M49" s="44"/>
-    </row>
-    <row r="50">
-      <c r="M50" s="44"/>
-    </row>
-    <row r="51">
-      <c r="C51" s="46" t="s">
+        <v>125.66370614359172</v>
+      </c>
+      <c r="M48" s="23"/>
+    </row>
+    <row r="49" spans="1:15" ht="13.2">
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="10"/>
+      <c r="M49" s="23"/>
+    </row>
+    <row r="50" spans="1:15" ht="13.2">
+      <c r="M50" s="23"/>
+    </row>
+    <row r="51" spans="1:15" ht="13.2">
+      <c r="C51" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="D51" s="47" t="s">
+      <c r="D51" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="48" t="s">
+      <c r="E51" s="51"/>
+      <c r="F51" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="G51" s="10"/>
-      <c r="H51" s="49" t="s">
+      <c r="G51" s="51"/>
+      <c r="H51" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="I51" s="10"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="50"/>
-      <c r="M51" s="42"/>
-      <c r="N51" s="50"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="51"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="52" t="s">
+      <c r="I51" s="42"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+    </row>
+    <row r="52" spans="1:15" ht="13.2">
+      <c r="A52" s="26"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="E52" s="52" t="s">
+      <c r="E52" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="F52" s="52" t="s">
+      <c r="F52" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="G52" s="52" t="s">
+      <c r="G52" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="H52" s="52" t="s">
+      <c r="H52" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="I52" s="52" t="s">
+      <c r="I52" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="50"/>
-      <c r="M52" s="42"/>
-      <c r="N52" s="50"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="53" t="s">
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+    </row>
+    <row r="53" spans="1:15" ht="52.8">
+      <c r="A53" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C53" s="46" t="s">
+      <c r="C53" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D53" s="54">
-        <v>5.0</v>
-      </c>
-      <c r="F53" s="53">
+      <c r="D53" s="43">
+        <v>5</v>
+      </c>
+      <c r="E53" s="44"/>
+      <c r="F53" s="41">
         <f>D53^ (3/4)</f>
-        <v>3.343701525</v>
-      </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="54">
+        <v>3.3437015248821096</v>
+      </c>
+      <c r="G53" s="42"/>
+      <c r="H53" s="43">
         <f>D24/(D53*F53)</f>
-        <v>2.39255805</v>
-      </c>
-      <c r="I53" s="12"/>
-      <c r="J53" s="42" t="s">
+        <v>2.3925580499539532</v>
+      </c>
+      <c r="I53" s="40"/>
+      <c r="J53" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="K53" s="50"/>
-      <c r="L53" s="42" t="s">
+      <c r="K53" s="21"/>
+      <c r="L53" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="M53" s="55"/>
-      <c r="N53" s="50"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="56"/>
-      <c r="B54" s="57" t="s">
+      <c r="M53" s="67"/>
+      <c r="N53" s="67"/>
+    </row>
+    <row r="54" spans="1:15" ht="145.19999999999999">
+      <c r="A54" s="65"/>
+      <c r="B54" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="C54" s="58" t="s">
+      <c r="C54" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="D54" s="54">
-        <v>14.0</v>
-      </c>
-      <c r="E54" s="54">
-        <v>70.0</v>
-      </c>
-      <c r="F54" s="51">
-        <v>14.0</v>
-      </c>
-      <c r="G54" s="59">
+      <c r="D54" s="29">
+        <v>14</v>
+      </c>
+      <c r="E54" s="29">
+        <v>70</v>
+      </c>
+      <c r="F54" s="26">
+        <v>14</v>
+      </c>
+      <c r="G54" s="22">
         <f>F54*F53</f>
-        <v>46.81182135</v>
-      </c>
-      <c r="H54" s="54">
-        <v>14.0</v>
-      </c>
-      <c r="I54" s="59">
+        <v>46.811821348349532</v>
+      </c>
+      <c r="H54" s="29">
+        <v>14</v>
+      </c>
+      <c r="I54" s="22">
         <f>H54*H53</f>
-        <v>33.4958127</v>
-      </c>
-      <c r="J54" s="42" t="s">
+        <v>33.495812699355341</v>
+      </c>
+      <c r="J54" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="K54" s="60" t="s">
+      <c r="K54" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="L54" s="50"/>
-      <c r="M54" s="42" t="s">
+      <c r="L54" s="21"/>
+      <c r="M54" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="N54" s="55"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="56"/>
-      <c r="B55" s="57" t="s">
+      <c r="N54" s="67"/>
+      <c r="O54" s="68"/>
+    </row>
+    <row r="55" spans="1:15" ht="66">
+      <c r="A55" s="65"/>
+      <c r="B55" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="C55" s="58" t="s">
+      <c r="C55" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="D55" s="54">
-        <v>14.0</v>
-      </c>
-      <c r="E55" s="54">
-        <v>69.0</v>
-      </c>
-      <c r="F55" s="51">
-        <v>14.0</v>
-      </c>
-      <c r="G55" s="59">
-        <v>47.0</v>
-      </c>
-      <c r="H55" s="54">
-        <v>14.0</v>
-      </c>
-      <c r="I55" s="59">
-        <v>34.0</v>
-      </c>
-      <c r="J55" s="42" t="s">
+      <c r="D55" s="29">
+        <v>14</v>
+      </c>
+      <c r="E55" s="29">
+        <v>69</v>
+      </c>
+      <c r="F55" s="26">
+        <v>14</v>
+      </c>
+      <c r="G55" s="22">
+        <v>47</v>
+      </c>
+      <c r="H55" s="29">
+        <v>14</v>
+      </c>
+      <c r="I55" s="22">
+        <v>34</v>
+      </c>
+      <c r="J55" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="K55" s="42" t="s">
+      <c r="K55" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="L55" s="50"/>
-      <c r="M55" s="50"/>
-      <c r="N55" s="50"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="56"/>
-      <c r="B56" s="57" t="s">
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+    </row>
+    <row r="56" spans="1:15" ht="13.2">
+      <c r="A56" s="65"/>
+      <c r="B56" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="58" t="s">
+      <c r="C56" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="D56" s="54">
+      <c r="D56" s="43">
         <f>E55/D55</f>
-        <v>4.928571429</v>
-      </c>
-      <c r="F56" s="51">
+        <v>4.9285714285714288</v>
+      </c>
+      <c r="E56" s="44"/>
+      <c r="F56" s="45">
         <f>G55/F55</f>
-        <v>3.357142857</v>
-      </c>
-      <c r="G56" s="12"/>
-      <c r="H56" s="54">
+        <v>3.3571428571428572</v>
+      </c>
+      <c r="G56" s="40"/>
+      <c r="H56" s="43">
         <f>I55/H55</f>
-        <v>2.428571429</v>
-      </c>
-      <c r="I56" s="12"/>
-      <c r="J56" s="42" t="s">
+        <v>2.4285714285714284</v>
+      </c>
+      <c r="I56" s="40"/>
+      <c r="J56" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="K56" s="50"/>
-      <c r="L56" s="50"/>
-      <c r="M56" s="50"/>
-      <c r="N56" s="50"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="56"/>
-      <c r="B57" s="57" t="s">
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+    </row>
+    <row r="57" spans="1:15" ht="26.4">
+      <c r="A57" s="65"/>
+      <c r="B57" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="C57" s="51" t="s">
+      <c r="C57" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D57" s="51">
+      <c r="D57" s="74">
         <f>D56*F56*H56</f>
-        <v>40.18294461</v>
-      </c>
-      <c r="I57" s="12"/>
-      <c r="J57" s="42" t="s">
+        <v>40.18294460641399</v>
+      </c>
+      <c r="E57" s="75"/>
+      <c r="F57" s="75"/>
+      <c r="G57" s="75"/>
+      <c r="H57" s="75"/>
+      <c r="I57" s="76"/>
+      <c r="J57" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="K57" s="50"/>
-      <c r="L57" s="50"/>
-      <c r="M57" s="50"/>
-      <c r="N57" s="50"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="56"/>
-      <c r="B58" s="57" t="s">
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+    </row>
+    <row r="58" spans="1:15" ht="13.2">
+      <c r="A58" s="65"/>
+      <c r="B58" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C58" s="58" t="s">
+      <c r="C58" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="D58" s="61">
+      <c r="D58" s="77">
         <f>IF((D53-D56)&lt;0, ((D53-D56)/D56)*-1, ((D53-D56)/D56))</f>
-        <v>0.01449275362</v>
-      </c>
-      <c r="F58" s="62">
+        <v>1.4492753623188354E-2</v>
+      </c>
+      <c r="E58" s="75"/>
+      <c r="F58" s="77">
         <f>IF((F53-F56)&lt;0, ((F53-F56)/F56)*-1, ((F53-F56)/F56))</f>
-        <v>0.004003801099</v>
-      </c>
-      <c r="G58" s="12"/>
-      <c r="H58" s="61">
+        <v>4.0038010989460991E-3</v>
+      </c>
+      <c r="G58" s="76"/>
+      <c r="H58" s="77">
         <f>IF((H53-H56)&lt;0, ((H53-H56)/H56)*-1, ((H53-H56)/H56))</f>
-        <v>0.01482903825</v>
-      </c>
-      <c r="I58" s="12"/>
-      <c r="L58" s="50"/>
-      <c r="M58" s="50"/>
-      <c r="N58" s="50"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="56"/>
-      <c r="B59" s="57" t="s">
+        <v>1.4829038254254504E-2</v>
+      </c>
+      <c r="I58" s="76"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+    </row>
+    <row r="59" spans="1:15" ht="26.4">
+      <c r="A59" s="65"/>
+      <c r="B59" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="C59" s="58" t="s">
+      <c r="C59" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="D59" s="61">
+      <c r="D59" s="77">
         <f>IF((D24-D57)&lt;0,((D24-D57)/D57)*-1,((D24-D57)/D57))</f>
-        <v>0.00455279244</v>
-      </c>
-      <c r="I59" s="12"/>
-      <c r="J59" s="42" t="s">
+        <v>4.5527924398250435E-3</v>
+      </c>
+      <c r="E59" s="75"/>
+      <c r="F59" s="75"/>
+      <c r="G59" s="75"/>
+      <c r="H59" s="75"/>
+      <c r="I59" s="76"/>
+      <c r="J59" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="K59" s="42" t="s">
+      <c r="K59" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="L59" s="50"/>
-      <c r="M59" s="50"/>
-      <c r="N59" s="50"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="56"/>
-      <c r="B60" s="57" t="s">
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+    </row>
+    <row r="60" spans="1:15" ht="118.8">
+      <c r="A60" s="65"/>
+      <c r="B60" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="C60" s="51" t="s">
+      <c r="C60" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="51">
-        <v>2.0</v>
-      </c>
-      <c r="E60" s="12"/>
-      <c r="F60" s="54">
+      <c r="D60" s="45">
+        <v>2</v>
+      </c>
+      <c r="E60" s="40"/>
+      <c r="F60" s="43">
         <f>D60*((1/F56)/(1/D56))</f>
-        <v>2.936170213</v>
-      </c>
-      <c r="G60" s="12"/>
-      <c r="H60" s="51">
+        <v>2.9361702127659575</v>
+      </c>
+      <c r="G60" s="40"/>
+      <c r="H60" s="45">
         <f>F60*((1/H56)/(1/F56))</f>
-        <v>4.058823529</v>
-      </c>
-      <c r="I60" s="12"/>
-      <c r="J60" s="60" t="s">
+        <v>4.0588235294117654</v>
+      </c>
+      <c r="I60" s="40"/>
+      <c r="J60" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="K60" s="42" t="s">
+      <c r="K60" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="L60" s="50"/>
-      <c r="M60" s="42" t="s">
+      <c r="L60" s="21"/>
+      <c r="M60" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="N60" s="55"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="56"/>
-      <c r="B61" s="57" t="s">
+      <c r="N60" s="30"/>
+    </row>
+    <row r="61" spans="1:15" ht="26.4">
+      <c r="A61" s="65"/>
+      <c r="B61" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="C61" s="58" t="s">
+      <c r="C61" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="D61" s="51">
-        <v>2.0</v>
-      </c>
-      <c r="E61" s="12"/>
-      <c r="F61" s="51">
-        <v>3.0</v>
-      </c>
-      <c r="G61" s="12"/>
-      <c r="H61" s="51">
-        <v>4.0</v>
-      </c>
-      <c r="I61" s="12"/>
-      <c r="J61" s="42" t="s">
+      <c r="D61" s="45">
+        <v>2</v>
+      </c>
+      <c r="E61" s="40"/>
+      <c r="F61" s="45">
+        <v>3</v>
+      </c>
+      <c r="G61" s="40"/>
+      <c r="H61" s="45">
+        <v>4</v>
+      </c>
+      <c r="I61" s="40"/>
+      <c r="J61" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="K61" s="50"/>
-      <c r="L61" s="50"/>
-      <c r="M61" s="50"/>
-      <c r="N61" s="50"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="56"/>
-      <c r="B62" s="57" t="s">
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+    </row>
+    <row r="62" spans="1:15" ht="39.6">
+      <c r="A62" s="65"/>
+      <c r="B62" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C62" s="58" t="s">
+      <c r="C62" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="D62" s="51">
+      <c r="D62" s="45">
         <f>D61</f>
         <v>2</v>
       </c>
-      <c r="E62" s="12"/>
-      <c r="F62" s="51">
+      <c r="E62" s="40"/>
+      <c r="F62" s="45">
         <f>F61/COS($D$35)</f>
-        <v>3.046279836</v>
-      </c>
-      <c r="G62" s="12"/>
-      <c r="H62" s="51">
+        <v>3.0462798356572351</v>
+      </c>
+      <c r="G62" s="40"/>
+      <c r="H62" s="45">
         <f>H61/COS($D$35)</f>
-        <v>4.061706448</v>
-      </c>
-      <c r="I62" s="12"/>
-      <c r="J62" s="37" t="s">
+        <v>4.0617064475429805</v>
+      </c>
+      <c r="I62" s="40"/>
+      <c r="J62" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="K62" s="50"/>
-      <c r="L62" s="50"/>
-      <c r="M62" s="50"/>
-      <c r="N62" s="50"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="56"/>
-      <c r="B63" s="57" t="s">
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+    </row>
+    <row r="63" spans="1:15" ht="39.6">
+      <c r="A63" s="65"/>
+      <c r="B63" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="C63" s="58" t="s">
+      <c r="C63" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="D63" s="63">
+      <c r="D63" s="26">
         <f>D55*D62</f>
         <v>28</v>
       </c>
-      <c r="E63" s="43">
+      <c r="E63" s="22">
         <f>E55*D62</f>
         <v>138</v>
       </c>
-      <c r="F63" s="63">
+      <c r="F63" s="26">
         <f>F55*F62</f>
-        <v>42.6479177</v>
-      </c>
-      <c r="G63" s="43">
+        <v>42.647917699201294</v>
+      </c>
+      <c r="G63" s="22">
         <f>G55*F62</f>
-        <v>143.1751523</v>
-      </c>
-      <c r="H63" s="63">
+        <v>143.17515227589004</v>
+      </c>
+      <c r="H63" s="26">
         <f>H55*H62</f>
-        <v>56.86389027</v>
-      </c>
-      <c r="I63" s="43">
+        <v>56.863890265601725</v>
+      </c>
+      <c r="I63" s="22">
         <f>I55*H62</f>
-        <v>138.0980192</v>
-      </c>
-      <c r="J63" s="37" t="s">
+        <v>138.09801921646132</v>
+      </c>
+      <c r="J63" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K63" s="50"/>
-      <c r="L63" s="50"/>
-      <c r="M63" s="50"/>
-      <c r="N63" s="50"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="56"/>
-      <c r="B64" s="57" t="s">
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+    </row>
+    <row r="64" spans="1:15" ht="39.6">
+      <c r="A64" s="65"/>
+      <c r="B64" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="C64" s="58" t="s">
+      <c r="C64" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="D64" s="63">
-        <f t="shared" ref="D64:E64" si="1">D63*COS($D$29)</f>
-        <v>25.37661804</v>
-      </c>
-      <c r="E64" s="43">
+      <c r="D64" s="26">
+        <f t="shared" ref="D64:E64" si="0">D63*COS($D$29)</f>
+        <v>25.376618037026198</v>
+      </c>
+      <c r="E64" s="22">
+        <f t="shared" si="0"/>
+        <v>125.07047461105769</v>
+      </c>
+      <c r="F64" s="26">
+        <f t="shared" ref="F64:I64" si="1">E63*COS($D$33)</f>
+        <v>125.07047461105769</v>
+      </c>
+      <c r="G64" s="22">
         <f t="shared" si="1"/>
-        <v>125.0704746</v>
-      </c>
-      <c r="F64" s="63">
-        <f t="shared" ref="F64:I64" si="2">E63*COS($D$33)</f>
-        <v>125.0704746</v>
-      </c>
-      <c r="G64" s="43">
+        <v>38.652139911684301</v>
+      </c>
+      <c r="H64" s="26">
+        <f t="shared" si="1"/>
+        <v>129.76075541779727</v>
+      </c>
+      <c r="I64" s="22">
+        <f t="shared" si="1"/>
+        <v>51.536186548912397</v>
+      </c>
+      <c r="J64" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+    </row>
+    <row r="65" spans="1:14" ht="25.5" customHeight="1">
+      <c r="A65" s="65"/>
+      <c r="B65" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D65" s="26">
+        <f t="shared" ref="D65:I65" si="2">D63-(2*D76)</f>
+        <v>23</v>
+      </c>
+      <c r="E65" s="22">
         <f t="shared" si="2"/>
-        <v>38.65213991</v>
-      </c>
-      <c r="H64" s="63">
+        <v>133</v>
+      </c>
+      <c r="F65" s="26">
         <f t="shared" si="2"/>
-        <v>129.7607554</v>
-      </c>
-      <c r="I64" s="43">
+        <v>35.147917699201294</v>
+      </c>
+      <c r="G65" s="22">
         <f t="shared" si="2"/>
-        <v>51.53618655</v>
-      </c>
-      <c r="J64" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="K64" s="50"/>
-      <c r="L64" s="50"/>
-      <c r="M64" s="50"/>
-      <c r="N64" s="50"/>
-    </row>
-    <row r="65" ht="25.5" customHeight="1">
-      <c r="A65" s="56"/>
-      <c r="B65" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="C65" s="58" t="s">
+        <v>135.67515227589004</v>
+      </c>
+      <c r="H65" s="26">
+        <f t="shared" si="2"/>
+        <v>46.863890265601725</v>
+      </c>
+      <c r="I65" s="22">
+        <f t="shared" si="2"/>
+        <v>128.09801921646132</v>
+      </c>
+      <c r="J65" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+    </row>
+    <row r="66" spans="1:14" ht="27.75" customHeight="1">
+      <c r="A66" s="65"/>
+      <c r="B66" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="D65" s="63">
-        <f t="shared" ref="D65:I65" si="3">D63-(2*D76)</f>
-        <v>23</v>
-      </c>
-      <c r="E65" s="43">
+      <c r="D66" s="26">
+        <f t="shared" ref="D66:I66" si="3">D63+(2*D75)</f>
+        <v>32</v>
+      </c>
+      <c r="E66" s="22">
         <f t="shared" si="3"/>
-        <v>133</v>
-      </c>
-      <c r="F65" s="63">
+        <v>142</v>
+      </c>
+      <c r="F66" s="26">
         <f t="shared" si="3"/>
-        <v>35.1479177</v>
-      </c>
-      <c r="G65" s="43">
+        <v>48.647917699201294</v>
+      </c>
+      <c r="G66" s="22">
         <f t="shared" si="3"/>
-        <v>135.6751523</v>
-      </c>
-      <c r="H65" s="63">
+        <v>149.17515227589004</v>
+      </c>
+      <c r="H66" s="26">
         <f t="shared" si="3"/>
-        <v>46.86389027</v>
-      </c>
-      <c r="I65" s="43">
+        <v>64.863890265601725</v>
+      </c>
+      <c r="I66" s="22">
         <f t="shared" si="3"/>
-        <v>128.0980192</v>
-      </c>
-      <c r="J65" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="K65" s="50"/>
-      <c r="L65" s="50"/>
-      <c r="M65" s="50"/>
-      <c r="N65" s="50"/>
-    </row>
-    <row r="66" ht="27.75" customHeight="1">
-      <c r="A66" s="56"/>
-      <c r="B66" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="C66" s="58" t="s">
+        <v>146.09801921646132</v>
+      </c>
+      <c r="J66" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="K66" s="5"/>
+    </row>
+    <row r="67" spans="1:14" ht="39.6">
+      <c r="A67" s="65"/>
+      <c r="B67" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C67" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="D66" s="63">
-        <f t="shared" ref="D66:I66" si="4">D63+(2*D75)</f>
-        <v>32</v>
-      </c>
-      <c r="E66" s="43">
+      <c r="D67" s="26">
+        <f t="shared" ref="D67:I67" si="4">D63-(2*D75)</f>
+        <v>24</v>
+      </c>
+      <c r="E67" s="22">
         <f t="shared" si="4"/>
-        <v>142</v>
-      </c>
-      <c r="F66" s="63">
+        <v>134</v>
+      </c>
+      <c r="F67" s="26">
         <f t="shared" si="4"/>
-        <v>48.6479177</v>
-      </c>
-      <c r="G66" s="43">
+        <v>36.647917699201294</v>
+      </c>
+      <c r="G67" s="22">
         <f t="shared" si="4"/>
-        <v>149.1751523</v>
-      </c>
-      <c r="H66" s="63">
+        <v>137.17515227589004</v>
+      </c>
+      <c r="H67" s="26">
         <f t="shared" si="4"/>
-        <v>64.86389027</v>
-      </c>
-      <c r="I66" s="43">
+        <v>48.863890265601725</v>
+      </c>
+      <c r="I67" s="22">
         <f t="shared" si="4"/>
-        <v>146.0980192</v>
-      </c>
-      <c r="J66" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="K66" s="64"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="56"/>
-      <c r="B67" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="C67" s="58" t="s">
+        <v>130.09801921646132</v>
+      </c>
+      <c r="J67" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="K67" s="5"/>
+    </row>
+    <row r="68" spans="1:14" ht="44.25" customHeight="1">
+      <c r="A68" s="65"/>
+      <c r="B68" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C68" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D68" s="26">
+        <f>ATAN(TAN(D29)/(COS(D30)))</f>
+        <v>0.43633231299858238</v>
+      </c>
+      <c r="E68" s="22">
+        <f>ATAN(TAN(D29)/(COS(D30)))</f>
+        <v>0.43633231299858238</v>
+      </c>
+      <c r="F68" s="26">
+        <f t="shared" ref="F68:I68" si="5">ATAN(TAN($D$33)/(COS($D$35)))</f>
+        <v>0.44222474442054582</v>
+      </c>
+      <c r="G68" s="22">
+        <f t="shared" si="5"/>
+        <v>0.44222474442054582</v>
+      </c>
+      <c r="H68" s="26">
+        <f t="shared" si="5"/>
+        <v>0.44222474442054582</v>
+      </c>
+      <c r="I68" s="22">
+        <f t="shared" si="5"/>
+        <v>0.44222474442054582</v>
+      </c>
+      <c r="J68" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="K68" s="5"/>
+    </row>
+    <row r="69" spans="1:14" ht="13.2">
+      <c r="A69" s="65"/>
+      <c r="B69" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="D67" s="63">
-        <f t="shared" ref="D67:I67" si="5">D63-(2*D75)</f>
-        <v>24</v>
-      </c>
-      <c r="E67" s="43">
-        <f t="shared" si="5"/>
-        <v>134</v>
-      </c>
-      <c r="F67" s="63">
-        <f t="shared" si="5"/>
-        <v>36.6479177</v>
-      </c>
-      <c r="G67" s="43">
-        <f t="shared" si="5"/>
-        <v>137.1751523</v>
-      </c>
-      <c r="H67" s="63">
-        <f t="shared" si="5"/>
-        <v>48.86389027</v>
-      </c>
-      <c r="I67" s="43">
-        <f t="shared" si="5"/>
-        <v>130.0980192</v>
-      </c>
-      <c r="J67" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="K67" s="64"/>
-    </row>
-    <row r="68" ht="44.25" customHeight="1">
-      <c r="A68" s="56"/>
-      <c r="B68" s="65" t="s">
-        <v>114</v>
-      </c>
-      <c r="C68" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="D68" s="63">
-        <f>ATAN(TAN(D29)/(COS(D30)))</f>
-        <v>0.436332313</v>
-      </c>
-      <c r="E68" s="43">
-        <f>ATAN(TAN(D29)/(COS(D30)))</f>
-        <v>0.436332313</v>
-      </c>
-      <c r="F68" s="63">
-        <f t="shared" ref="F68:I68" si="6">ATAN(TAN($D$33)/(COS($D$35)))</f>
-        <v>0.4422247444</v>
-      </c>
-      <c r="G68" s="43">
-        <f t="shared" si="6"/>
-        <v>0.4422247444</v>
-      </c>
-      <c r="H68" s="63">
-        <f t="shared" si="6"/>
-        <v>0.4422247444</v>
-      </c>
-      <c r="I68" s="43">
-        <f t="shared" si="6"/>
-        <v>0.4422247444</v>
-      </c>
-      <c r="J68" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="K68" s="64"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="56"/>
-      <c r="B69" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="C69" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="D69" s="63">
+      <c r="D69" s="45">
         <f>(D63+E63)/2</f>
         <v>83</v>
       </c>
-      <c r="E69" s="12"/>
-      <c r="F69" s="63">
+      <c r="E69" s="40"/>
+      <c r="F69" s="45">
         <f>(F63+G63)/2</f>
-        <v>92.91153499</v>
-      </c>
-      <c r="G69" s="12"/>
-      <c r="H69" s="63">
+        <v>92.911534987545664</v>
+      </c>
+      <c r="G69" s="40"/>
+      <c r="H69" s="45">
         <f>(H63+I63)/2</f>
-        <v>97.48095474</v>
-      </c>
-      <c r="I69" s="12"/>
-      <c r="J69" s="44" t="s">
+        <v>97.480954741031525</v>
+      </c>
+      <c r="I69" s="40"/>
+      <c r="J69" s="23" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="56"/>
-      <c r="B70" s="57" t="s">
+    <row r="70" spans="1:14" ht="39.6">
+      <c r="A70" s="65"/>
+      <c r="B70" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="C70" s="58" t="s">
+      <c r="C70" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="D70" s="63">
-        <f t="shared" ref="D70:E70" si="7">(PI()*$D$61)/D55</f>
-        <v>0.4487989505</v>
-      </c>
-      <c r="E70" s="43">
+      <c r="D70" s="26">
+        <f t="shared" ref="D70:E70" si="6">(PI()*$D$61)/D55</f>
+        <v>0.44879895051282759</v>
+      </c>
+      <c r="E70" s="22">
+        <f t="shared" si="6"/>
+        <v>9.1060656625791103E-2</v>
+      </c>
+      <c r="F70" s="26">
+        <f>(PI()*F61)/F55</f>
+        <v>0.67319842576924138</v>
+      </c>
+      <c r="G70" s="22">
+        <f>(PI()*F61)/G55</f>
+        <v>0.20052719065466765</v>
+      </c>
+      <c r="H70" s="26">
+        <f t="shared" ref="H70:I70" si="7">(PI()*$H$61)/H55</f>
+        <v>0.89759790102565518</v>
+      </c>
+      <c r="I70" s="22">
         <f t="shared" si="7"/>
-        <v>0.09106065663</v>
-      </c>
-      <c r="F70" s="63">
-        <f>(PI()*F61)/F55</f>
-        <v>0.6731984258</v>
-      </c>
-      <c r="G70" s="43">
-        <f>(PI()*F61)/G55</f>
-        <v>0.2005271907</v>
-      </c>
-      <c r="H70" s="63">
-        <f t="shared" ref="H70:I70" si="8">(PI()*$H$61)/H55</f>
-        <v>0.897597901</v>
-      </c>
-      <c r="I70" s="43">
+        <v>0.36959913571644626</v>
+      </c>
+      <c r="J70" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="K70" s="5"/>
+    </row>
+    <row r="71" spans="1:14" ht="39.6">
+      <c r="A71" s="65"/>
+      <c r="B71" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D71" s="26">
+        <f t="shared" ref="D71:E71" si="8">D70*COS($D$29)</f>
+        <v>0.40674998366365173</v>
+      </c>
+      <c r="E71" s="22">
         <f t="shared" si="8"/>
-        <v>0.3695991357</v>
-      </c>
-      <c r="J70" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="K70" s="64"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="56"/>
-      <c r="B71" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="C71" s="58" t="s">
+        <v>8.2528982192624986E-2</v>
+      </c>
+      <c r="F71" s="26">
+        <f t="shared" ref="F71:I71" si="9">F70*COS($D$32)</f>
+        <v>0.66727617256453597</v>
+      </c>
+      <c r="G71" s="22">
+        <f t="shared" si="9"/>
+        <v>0.19876311523198945</v>
+      </c>
+      <c r="H71" s="26">
+        <f t="shared" si="9"/>
+        <v>0.88970156341938123</v>
+      </c>
+      <c r="I71" s="22">
+        <f t="shared" si="9"/>
+        <v>0.3663477025844511</v>
+      </c>
+      <c r="J71" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="K71" s="5"/>
+    </row>
+    <row r="72" spans="1:14" ht="42" customHeight="1">
+      <c r="A72" s="65"/>
+      <c r="B72" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="D71" s="63">
-        <f t="shared" ref="D71:E71" si="9">D70*COS($D$29)</f>
-        <v>0.4067499837</v>
-      </c>
-      <c r="E71" s="43">
-        <f t="shared" si="9"/>
-        <v>0.08252898219</v>
-      </c>
-      <c r="F71" s="63">
-        <f t="shared" ref="F71:I71" si="10">F70*COS($D$32)</f>
-        <v>0.6672761726</v>
-      </c>
-      <c r="G71" s="43">
+      <c r="D72" s="26">
+        <f>PI()*D62</f>
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="E72" s="22">
+        <f>PI()*D62</f>
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="F72" s="26">
+        <f>PI()*F62</f>
+        <v>9.5701703524794919</v>
+      </c>
+      <c r="G72" s="22">
+        <f>PI()*F62</f>
+        <v>9.5701703524794919</v>
+      </c>
+      <c r="H72" s="26">
+        <f>PI()*H62</f>
+        <v>12.760227136639324</v>
+      </c>
+      <c r="I72" s="22">
+        <f>PI()*H62</f>
+        <v>12.760227136639324</v>
+      </c>
+      <c r="J72" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="K72" s="5"/>
+    </row>
+    <row r="73" spans="1:14" ht="39.6">
+      <c r="A73" s="65"/>
+      <c r="B73" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E73" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="F73" s="26">
+        <f t="shared" ref="F73:I73" si="10">F72/COS($D$35)</f>
+        <v>9.7178056561876573</v>
+      </c>
+      <c r="G73" s="22">
         <f t="shared" si="10"/>
-        <v>0.1987631152</v>
-      </c>
-      <c r="H71" s="63">
+        <v>9.7178056561876573</v>
+      </c>
+      <c r="H73" s="26">
         <f t="shared" si="10"/>
-        <v>0.8897015634</v>
-      </c>
-      <c r="I71" s="43">
+        <v>12.95707420825021</v>
+      </c>
+      <c r="I73" s="22">
         <f t="shared" si="10"/>
-        <v>0.3663477026</v>
-      </c>
-      <c r="J71" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="K71" s="64"/>
-    </row>
-    <row r="72" ht="42.0" customHeight="1">
-      <c r="A72" s="56"/>
-      <c r="B72" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="C72" s="58" t="s">
+        <v>12.95707420825021</v>
+      </c>
+      <c r="J73" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="K73" s="23"/>
+    </row>
+    <row r="74" spans="1:14" ht="39.6">
+      <c r="A74" s="65"/>
+      <c r="B74" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C74" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="D72" s="63">
-        <f>PI()*D62</f>
-        <v>6.283185307</v>
-      </c>
-      <c r="E72" s="43">
-        <f>PI()*D62</f>
-        <v>6.283185307</v>
-      </c>
-      <c r="F72" s="63">
-        <f>PI()*F62</f>
-        <v>9.570170352</v>
-      </c>
-      <c r="G72" s="43">
-        <f>PI()*F62</f>
-        <v>9.570170352</v>
-      </c>
-      <c r="H72" s="63">
-        <f>PI()*H62</f>
-        <v>12.76022714</v>
-      </c>
-      <c r="I72" s="43">
-        <f>PI()*H62</f>
-        <v>12.76022714</v>
-      </c>
-      <c r="J72" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="K72" s="64"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="56"/>
-      <c r="B73" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="C73" s="58" t="s">
+      <c r="D74" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="F74" s="26">
+        <f t="shared" ref="F74:I74" si="11">F73/TAN($D$35)</f>
+        <v>55.112414544515204</v>
+      </c>
+      <c r="G74" s="22">
+        <f t="shared" si="11"/>
+        <v>55.112414544515204</v>
+      </c>
+      <c r="H74" s="26">
+        <f t="shared" si="11"/>
+        <v>73.483219392686948</v>
+      </c>
+      <c r="I74" s="22">
+        <f t="shared" si="11"/>
+        <v>73.483219392686948</v>
+      </c>
+      <c r="J74" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="K74" s="23"/>
+    </row>
+    <row r="75" spans="1:14" ht="13.2">
+      <c r="A75" s="65"/>
+      <c r="B75" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="E73" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="F73" s="63">
-        <f t="shared" ref="F73:I73" si="11">F72/COS($D$35)</f>
-        <v>9.717805656</v>
-      </c>
-      <c r="G73" s="43">
-        <f t="shared" si="11"/>
-        <v>9.717805656</v>
-      </c>
-      <c r="H73" s="63">
-        <f t="shared" si="11"/>
-        <v>12.95707421</v>
-      </c>
-      <c r="I73" s="43">
-        <f t="shared" si="11"/>
-        <v>12.95707421</v>
-      </c>
-      <c r="J73" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="K73" s="66"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="56"/>
-      <c r="B74" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="C74" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="D74" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="E74" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="F74" s="63">
-        <f t="shared" ref="F74:I74" si="12">F73/TAN($D$35)</f>
-        <v>55.11241454</v>
-      </c>
-      <c r="G74" s="43">
-        <f t="shared" si="12"/>
-        <v>55.11241454</v>
-      </c>
-      <c r="H74" s="63">
-        <f t="shared" si="12"/>
-        <v>73.48321939</v>
-      </c>
-      <c r="I74" s="43">
-        <f t="shared" si="12"/>
-        <v>73.48321939</v>
-      </c>
-      <c r="J74" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="K74" s="66"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="56"/>
-      <c r="B75" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="C75" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="D75" s="63">
+      <c r="D75" s="26">
         <f>1*D61</f>
         <v>2</v>
       </c>
-      <c r="E75" s="43">
+      <c r="E75" s="22">
         <f>1*D61</f>
         <v>2</v>
       </c>
-      <c r="F75" s="63">
+      <c r="F75" s="26">
         <f>1*F61</f>
         <v>3</v>
       </c>
-      <c r="G75" s="43">
+      <c r="G75" s="22">
         <f>1*F61</f>
         <v>3</v>
       </c>
-      <c r="H75" s="63">
+      <c r="H75" s="26">
         <f>1*H61</f>
         <v>4</v>
       </c>
-      <c r="I75" s="43">
+      <c r="I75" s="22">
         <f>1*H61</f>
         <v>4</v>
       </c>
-      <c r="J75" s="37" t="s">
+      <c r="J75" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="K75" s="66"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="56"/>
-      <c r="B76" s="57" t="s">
+      <c r="K75" s="47"/>
+    </row>
+    <row r="76" spans="1:14" ht="13.2">
+      <c r="A76" s="65"/>
+      <c r="B76" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="C76" s="58" t="s">
+      <c r="C76" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="D76" s="63">
+      <c r="D76" s="26">
         <f>1.25*D61</f>
         <v>2.5</v>
       </c>
-      <c r="E76" s="43">
+      <c r="E76" s="22">
         <f>1.25*D61</f>
         <v>2.5</v>
       </c>
-      <c r="F76" s="63">
+      <c r="F76" s="26">
         <f>1.25*F61</f>
         <v>3.75</v>
       </c>
-      <c r="G76" s="43">
+      <c r="G76" s="22">
         <f>1.25*F61</f>
         <v>3.75</v>
       </c>
-      <c r="H76" s="63">
+      <c r="H76" s="26">
         <f>1.25*H61</f>
         <v>5</v>
       </c>
-      <c r="I76" s="43">
+      <c r="I76" s="22">
         <f>1.25*H61</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="56"/>
-      <c r="B77" s="57" t="s">
+      <c r="J76" s="44"/>
+      <c r="K76" s="44"/>
+    </row>
+    <row r="77" spans="1:14" ht="13.2">
+      <c r="A77" s="65"/>
+      <c r="B77" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="C77" s="58" t="s">
+      <c r="C77" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="D77" s="63">
-        <f t="shared" ref="D77:I77" si="13">D75+D76</f>
+      <c r="D77" s="26">
+        <f t="shared" ref="D77:I77" si="12">D75+D76</f>
         <v>4.5</v>
       </c>
-      <c r="E77" s="43">
+      <c r="E77" s="22">
+        <f t="shared" si="12"/>
+        <v>4.5</v>
+      </c>
+      <c r="F77" s="26">
+        <f t="shared" si="12"/>
+        <v>6.75</v>
+      </c>
+      <c r="G77" s="22">
+        <f t="shared" si="12"/>
+        <v>6.75</v>
+      </c>
+      <c r="H77" s="26">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="I77" s="22">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="J77" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="25.5" customHeight="1">
+      <c r="A78" s="65"/>
+      <c r="B78" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C78" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D78" s="26">
+        <f t="shared" ref="D78:I78" si="13">D76-D75</f>
+        <v>0.5</v>
+      </c>
+      <c r="E78" s="22">
         <f t="shared" si="13"/>
-        <v>4.5</v>
-      </c>
-      <c r="F77" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="F78" s="26">
         <f t="shared" si="13"/>
-        <v>6.75</v>
-      </c>
-      <c r="G77" s="43">
+        <v>0.75</v>
+      </c>
+      <c r="G78" s="22">
         <f t="shared" si="13"/>
-        <v>6.75</v>
-      </c>
-      <c r="H77" s="63">
+        <v>0.75</v>
+      </c>
+      <c r="H78" s="26">
         <f t="shared" si="13"/>
-        <v>9</v>
-      </c>
-      <c r="I77" s="43">
+        <v>1</v>
+      </c>
+      <c r="I78" s="22">
         <f t="shared" si="13"/>
-        <v>9</v>
-      </c>
-      <c r="J77" s="37" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="78" ht="25.5" customHeight="1">
-      <c r="A78" s="56"/>
-      <c r="B78" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="C78" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="J78" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="79.2">
+      <c r="A79" s="65"/>
+      <c r="B79" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C79" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="D78" s="63">
-        <f t="shared" ref="D78:I78" si="14">D76-D75</f>
-        <v>0.5</v>
-      </c>
-      <c r="E78" s="43">
-        <f t="shared" si="14"/>
-        <v>0.5</v>
-      </c>
-      <c r="F78" s="63">
-        <f t="shared" si="14"/>
-        <v>0.75</v>
-      </c>
-      <c r="G78" s="43">
-        <f t="shared" si="14"/>
-        <v>0.75</v>
-      </c>
-      <c r="H78" s="63">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="I78" s="43">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="J78" s="37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="56"/>
-      <c r="B79" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="C79" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="D79" s="63">
+      <c r="D79" s="26">
         <f>12*D61</f>
         <v>24</v>
       </c>
-      <c r="E79" s="43">
+      <c r="E79" s="22">
         <f>10*D61</f>
         <v>20</v>
       </c>
-      <c r="F79" s="63">
-        <f t="shared" ref="F79:I79" si="15">2*F74</f>
-        <v>110.2248291</v>
-      </c>
-      <c r="G79" s="43">
-        <f t="shared" si="15"/>
-        <v>110.2248291</v>
-      </c>
-      <c r="H79" s="63">
-        <f t="shared" si="15"/>
-        <v>146.9664388</v>
-      </c>
-      <c r="I79" s="43">
-        <f t="shared" si="15"/>
-        <v>146.9664388</v>
-      </c>
-      <c r="J79" s="37" t="s">
+      <c r="F79" s="26">
+        <f t="shared" ref="F79:I79" si="14">2*F74</f>
+        <v>110.22482908903041</v>
+      </c>
+      <c r="G79" s="22">
+        <f t="shared" si="14"/>
+        <v>110.22482908903041</v>
+      </c>
+      <c r="H79" s="26">
+        <f t="shared" si="14"/>
+        <v>146.9664387853739</v>
+      </c>
+      <c r="I79" s="22">
+        <f t="shared" si="14"/>
+        <v>146.9664387853739</v>
+      </c>
+      <c r="J79" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="K79" s="67" t="s">
+      <c r="K79" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="L79" s="68"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="56"/>
-      <c r="B80" s="57" t="s">
+      <c r="L79" s="29"/>
+    </row>
+    <row r="80" spans="1:14" ht="39.6">
+      <c r="A80" s="65"/>
+      <c r="B80" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="C80" s="58" t="s">
+      <c r="C80" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="D80" s="51">
+      <c r="D80" s="45">
         <f>SQRT((((D63/2) + D75)^2) - (((D63/2)*COS($D$29))^2)) + SQRT((((E63/2) + E75)^2) - (((E63/2)*COS($D$29))^2)) - (D69*SIN($D$29))</f>
-        <v>8.290418523</v>
-      </c>
-      <c r="E80" s="12"/>
-      <c r="F80" s="51">
+        <v>8.2904185226728018</v>
+      </c>
+      <c r="E80" s="40"/>
+      <c r="F80" s="45">
         <f>SQRT((F63/2 + F75)^2 - ((F63/2)*COS($D$33))^2) + SQRT((G63/2 + G75)^2 - ((G63/2)*COS($D$33))^2) - ($F$69*SIN($D$33))</f>
-        <v>12.29866801</v>
-      </c>
-      <c r="G80" s="12"/>
-      <c r="H80" s="51">
+        <v>12.298668012637499</v>
+      </c>
+      <c r="G80" s="40"/>
+      <c r="H80" s="45">
         <f>SQRT((H63/2 + H75)^2 - ((H63/2)*COS($D$33))^2) + SQRT((I63/2 + I75)^2 - ((I63/2)*COS($D$33))^2) - (H69*SIN($D$33))</f>
-        <v>16.17848353</v>
-      </c>
-      <c r="I80" s="12"/>
-      <c r="J80" s="37" t="s">
+        <v>16.178483534790757</v>
+      </c>
+      <c r="I80" s="40"/>
+      <c r="J80" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="K80" s="66"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="56"/>
-      <c r="B81" s="69" t="s">
+      <c r="K80" s="23"/>
+    </row>
+    <row r="81" spans="1:11" ht="39.6">
+      <c r="A81" s="65"/>
+      <c r="B81" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="C81" s="58" t="s">
+      <c r="C81" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="D81" s="63">
+      <c r="D81" s="45">
         <f>D80/(D72*COS(D29))</f>
-        <v>1.45586423</v>
-      </c>
-      <c r="E81" s="12"/>
-      <c r="F81" s="63">
+        <v>1.45586422963243</v>
+      </c>
+      <c r="E81" s="40"/>
+      <c r="F81" s="45">
         <f>F80/(F72*COS(F29))</f>
-        <v>1.285104398</v>
-      </c>
-      <c r="G81" s="12"/>
-      <c r="H81" s="63">
+        <v>1.285104398319419</v>
+      </c>
+      <c r="G81" s="40"/>
+      <c r="H81" s="45">
         <f>H80/(H72*COS(H29))</f>
-        <v>1.267883664</v>
-      </c>
-      <c r="I81" s="12"/>
-      <c r="J81" s="37" t="s">
+        <v>1.2678836639464164</v>
+      </c>
+      <c r="I81" s="40"/>
+      <c r="J81" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="K81" s="66"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="56"/>
-      <c r="B82" s="57" t="s">
+      <c r="K81" s="23"/>
+    </row>
+    <row r="82" spans="1:11" ht="39.6">
+      <c r="A82" s="65"/>
+      <c r="B82" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="C82" s="58" t="s">
+      <c r="C82" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="D82" s="51" t="s">
+      <c r="D82" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="E82" s="12"/>
-      <c r="F82" s="63">
+      <c r="E82" s="40"/>
+      <c r="F82" s="45">
         <f>F79/F74</f>
         <v>2</v>
       </c>
-      <c r="G82" s="12"/>
-      <c r="H82" s="63">
+      <c r="G82" s="40"/>
+      <c r="H82" s="45">
         <f>H79/H74</f>
         <v>2</v>
       </c>
-      <c r="I82" s="12"/>
-      <c r="J82" s="37" t="s">
+      <c r="I82" s="40"/>
+      <c r="J82" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="K82" s="66"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="70"/>
-      <c r="B83" s="71" t="s">
+      <c r="K82" s="23"/>
+    </row>
+    <row r="83" spans="1:11" ht="13.2">
+      <c r="A83" s="66"/>
+      <c r="B83" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="C83" s="72" t="s">
+      <c r="C83" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="D83" s="73">
+      <c r="D83" s="48">
         <f>D81</f>
-        <v>1.45586423</v>
-      </c>
-      <c r="E83" s="6"/>
-      <c r="F83" s="73">
+        <v>1.45586422963243</v>
+      </c>
+      <c r="E83" s="49"/>
+      <c r="F83" s="48">
         <f>F81+F82</f>
-        <v>3.285104398</v>
-      </c>
-      <c r="G83" s="6"/>
-      <c r="H83" s="73">
+        <v>3.2851043983194188</v>
+      </c>
+      <c r="G83" s="49"/>
+      <c r="H83" s="48">
         <f>H81+H82</f>
-        <v>3.267883664</v>
-      </c>
-      <c r="I83" s="6"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="51"/>
-    </row>
-    <row r="86">
-      <c r="B86" s="68"/>
-      <c r="C86" s="46" t="s">
+        <v>3.2678836639464164</v>
+      </c>
+      <c r="I83" s="49"/>
+    </row>
+    <row r="84" spans="1:11" ht="13.2">
+      <c r="A84" s="26"/>
+    </row>
+    <row r="86" spans="1:11" ht="13.2">
+      <c r="B86" s="29"/>
+      <c r="C86" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="D86" s="47" t="s">
+      <c r="D86" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="E86" s="10"/>
-      <c r="F86" s="48" t="s">
+      <c r="E86" s="51"/>
+      <c r="F86" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="G86" s="10"/>
-      <c r="H86" s="49" t="s">
+      <c r="G86" s="51"/>
+      <c r="H86" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="I86" s="10"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="46" t="s">
+      <c r="I86" s="42"/>
+    </row>
+    <row r="87" spans="1:11" ht="13.2">
+      <c r="A87" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="B87" s="74"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="75" t="s">
+      <c r="B87" s="38"/>
+      <c r="C87" s="63"/>
+      <c r="D87" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E87" s="75" t="s">
+      <c r="E87" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="F87" s="75" t="s">
+      <c r="F87" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="G87" s="75" t="s">
+      <c r="G87" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="H87" s="75" t="s">
+      <c r="H87" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="I87" s="75" t="s">
+      <c r="I87" s="81" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="16"/>
-      <c r="B88" s="51" t="s">
+    <row r="88" spans="1:11" ht="39.6">
+      <c r="A88" s="62"/>
+      <c r="B88" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="C88" s="58" t="s">
+      <c r="C88" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="D88" s="76">
+      <c r="D88" s="78">
         <f>D48</f>
-        <v>125.6637061</v>
-      </c>
-      <c r="E88" s="76">
+        <v>125.66370614359172</v>
+      </c>
+      <c r="E88" s="78">
         <f>D88/D56</f>
-        <v>25.49698386</v>
-      </c>
-      <c r="F88" s="76">
+        <v>25.496983855221508</v>
+      </c>
+      <c r="F88" s="78">
         <f>E88</f>
-        <v>25.49698386</v>
-      </c>
-      <c r="G88" s="76">
+        <v>25.496983855221508</v>
+      </c>
+      <c r="G88" s="78">
         <f>F88/F56</f>
-        <v>7.594846255</v>
-      </c>
-      <c r="H88" s="76">
+        <v>7.5948462547468321</v>
+      </c>
+      <c r="H88" s="78">
         <f>G88</f>
-        <v>7.594846255</v>
-      </c>
-      <c r="I88" s="77">
+        <v>7.5948462547468321</v>
+      </c>
+      <c r="I88" s="78">
         <f>H88/H56</f>
-        <v>3.127289634</v>
-      </c>
-      <c r="J88" s="37" t="s">
+        <v>3.1272896343075192</v>
+      </c>
+      <c r="J88" s="16" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="16"/>
-      <c r="B89" s="51" t="s">
+    <row r="89" spans="1:11" ht="39.6">
+      <c r="A89" s="62"/>
+      <c r="B89" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="C89" s="58" t="s">
+      <c r="C89" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="D89" s="76">
-        <f t="shared" ref="D89:I89" si="16">$D$22/D88</f>
-        <v>35.60455232</v>
-      </c>
-      <c r="E89" s="76">
+      <c r="D89" s="79">
+        <f t="shared" ref="D89:I89" si="15">$D$22/D88</f>
+        <v>35.604552319087915</v>
+      </c>
+      <c r="E89" s="79">
+        <f t="shared" si="15"/>
+        <v>175.4795792869333</v>
+      </c>
+      <c r="F89" s="79">
+        <f t="shared" si="15"/>
+        <v>175.4795792869333</v>
+      </c>
+      <c r="G89" s="79">
+        <f t="shared" si="15"/>
+        <v>589.11001617756176</v>
+      </c>
+      <c r="H89" s="79">
+        <f t="shared" si="15"/>
+        <v>589.11001617756176</v>
+      </c>
+      <c r="I89" s="79">
+        <f t="shared" si="15"/>
+        <v>1430.6957535740785</v>
+      </c>
+      <c r="J89" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="13.2">
+      <c r="A90" s="62"/>
+      <c r="B90" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C90" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="D90" s="79">
+        <f t="shared" ref="D90:I90" si="16">(D89*(D63/2))</f>
+        <v>498.46373246723078</v>
+      </c>
+      <c r="E90" s="79">
         <f t="shared" si="16"/>
-        <v>175.4795793</v>
-      </c>
-      <c r="F89" s="76">
+        <v>12108.090970798397</v>
+      </c>
+      <c r="F90" s="79">
         <f t="shared" si="16"/>
-        <v>175.4795793</v>
-      </c>
-      <c r="G89" s="76">
+        <v>3741.9193276597998</v>
+      </c>
+      <c r="G90" s="79">
         <f t="shared" si="16"/>
-        <v>589.1100162</v>
-      </c>
-      <c r="H89" s="76">
+        <v>42172.958136737223</v>
+      </c>
+      <c r="H90" s="79">
         <f t="shared" si="16"/>
-        <v>589.1100162</v>
-      </c>
-      <c r="I89" s="76">
+        <v>16749.543657143866</v>
+      </c>
+      <c r="I90" s="79">
         <f t="shared" si="16"/>
-        <v>1430.695754</v>
-      </c>
-      <c r="J89" s="37" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="16"/>
-      <c r="B90" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="C90" s="58" t="s">
+        <v>98788.124834991351</v>
+      </c>
+      <c r="J90" s="23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="39.6">
+      <c r="A91" s="62"/>
+      <c r="B91" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C91" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="D90" s="76">
-        <f t="shared" ref="D90:I90" si="17">(D89*(D63/2))</f>
-        <v>498.4637325</v>
-      </c>
-      <c r="E90" s="76">
+      <c r="D91" s="79">
+        <f t="shared" ref="D91:I91" si="17">D90*(TAN($D$29))</f>
+        <v>232.43745576199413</v>
+      </c>
+      <c r="E91" s="79">
         <f t="shared" si="17"/>
-        <v>12108.09097</v>
-      </c>
-      <c r="F90" s="76">
+        <v>5646.0955453206843</v>
+      </c>
+      <c r="F91" s="79">
         <f t="shared" si="17"/>
-        <v>3741.919328</v>
-      </c>
-      <c r="G90" s="76">
+        <v>1744.8856386859682</v>
+      </c>
+      <c r="G91" s="79">
         <f t="shared" si="17"/>
-        <v>42172.95814</v>
-      </c>
-      <c r="H90" s="76">
+        <v>19665.573346210727</v>
+      </c>
+      <c r="H91" s="79">
         <f t="shared" si="17"/>
-        <v>16749.54366</v>
-      </c>
-      <c r="I90" s="77">
+        <v>7810.4404779276665</v>
+      </c>
+      <c r="I91" s="79">
         <f t="shared" si="17"/>
-        <v>98788.12483</v>
-      </c>
-      <c r="J90" s="44" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="16"/>
-      <c r="B91" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="C91" s="58" t="s">
+        <v>46065.659145328471</v>
+      </c>
+      <c r="J91" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="39.6">
+      <c r="A92" s="62"/>
+      <c r="B92" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C92" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="D91" s="76">
-        <f t="shared" ref="D91:I91" si="18">D90*(TAN($D$29))</f>
-        <v>232.4374558</v>
-      </c>
-      <c r="E91" s="76">
+      <c r="D92" s="79">
+        <f t="shared" ref="D92:I92" si="18">D90*TAN($D$35)</f>
+        <v>87.892604938618845</v>
+      </c>
+      <c r="E92" s="79">
         <f t="shared" si="18"/>
-        <v>5646.095545</v>
-      </c>
-      <c r="F91" s="76">
+        <v>2134.983123024308</v>
+      </c>
+      <c r="F92" s="79">
         <f t="shared" si="18"/>
-        <v>1744.885639</v>
-      </c>
-      <c r="G91" s="76">
+        <v>659.80133710090172</v>
+      </c>
+      <c r="G92" s="79">
         <f t="shared" si="18"/>
-        <v>19665.57335</v>
-      </c>
-      <c r="H91" s="76">
+        <v>7436.230375795365</v>
+      </c>
+      <c r="H92" s="79">
         <f t="shared" si="18"/>
-        <v>7810.440478</v>
-      </c>
-      <c r="I91" s="77">
+        <v>2953.3964613087983</v>
+      </c>
+      <c r="I92" s="79">
         <f t="shared" si="18"/>
-        <v>46065.65915</v>
-      </c>
-      <c r="J91" s="37" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="16"/>
-      <c r="B92" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="C92" s="58" t="s">
+        <v>17419.011782004949</v>
+      </c>
+      <c r="J92" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="39.6">
+      <c r="A93" s="63"/>
+      <c r="B93" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C93" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="D92" s="76">
-        <f t="shared" ref="D92:I92" si="19">D90*TAN($D$35)</f>
-        <v>87.89260494</v>
-      </c>
-      <c r="E92" s="76">
+      <c r="D93" s="80">
+        <f t="shared" ref="D93:E93" si="19">D90/(COS($D$29)*COS($D$30))</f>
+        <v>549.9938758079694</v>
+      </c>
+      <c r="E93" s="80">
         <f t="shared" si="19"/>
-        <v>2134.983123</v>
-      </c>
-      <c r="F92" s="76">
-        <f t="shared" si="19"/>
-        <v>659.8013371</v>
-      </c>
-      <c r="G92" s="76">
-        <f t="shared" si="19"/>
-        <v>7436.230376</v>
-      </c>
-      <c r="H92" s="76">
-        <f t="shared" si="19"/>
-        <v>2953.396461</v>
-      </c>
-      <c r="I92" s="77">
-        <f t="shared" si="19"/>
-        <v>17419.01178</v>
-      </c>
-      <c r="J92" s="37" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="21"/>
-      <c r="B93" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="C93" s="72" t="s">
-        <v>155</v>
-      </c>
-      <c r="D93" s="79">
-        <f t="shared" ref="D93:E93" si="20">D90/(COS($D$29)*COS($D$30))</f>
-        <v>549.9938758</v>
-      </c>
-      <c r="E93" s="79">
+        <v>13359.800217968073</v>
+      </c>
+      <c r="F93" s="80">
+        <f t="shared" ref="F93:I93" si="20">F90/(COS(D33)*COS(D35))</f>
+        <v>4192.4438024074079</v>
+      </c>
+      <c r="G93" s="80">
         <f t="shared" si="20"/>
-        <v>13359.80022</v>
-      </c>
-      <c r="F93" s="79">
-        <f t="shared" ref="F93:I93" si="21">F90/(COS(D33)*COS(D35))</f>
-        <v>4192.443802</v>
-      </c>
-      <c r="G93" s="79">
-        <f t="shared" si="21"/>
-        <v>42172.95814</v>
-      </c>
-      <c r="H93" s="79">
-        <f t="shared" si="21"/>
-        <v>16749.54366</v>
+        <v>42172.958136737223</v>
+      </c>
+      <c r="H93" s="80">
+        <f t="shared" si="20"/>
+        <v>16749.543657143866</v>
       </c>
       <c r="I93" s="80">
-        <f t="shared" si="21"/>
-        <v>98788.12483</v>
-      </c>
-      <c r="J93" s="37" t="s">
+        <f t="shared" si="20"/>
+        <v>98788.124834991351</v>
+      </c>
+      <c r="J93" s="16" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="A87:A93"/>
+    <mergeCell ref="A53:A83"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="A10:A48"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:I60"/>
     <mergeCell ref="F58:G58"/>
     <mergeCell ref="H58:I58"/>
     <mergeCell ref="F53:G53"/>
@@ -3724,78 +4092,16 @@
     <mergeCell ref="F56:G56"/>
     <mergeCell ref="H56:I56"/>
     <mergeCell ref="D57:I57"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="A10:A47"/>
-    <mergeCell ref="A87:A93"/>
-    <mergeCell ref="A53:A83"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F80:G80"/>
   </mergeCells>
   <conditionalFormatting sqref="D58:I59">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThanOrEqual">
       <formula>0.01</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58:I59">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
-      <formula>0.01</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Projeto_01_A_Grupo_10.xlsx
+++ b/Projeto_01_A_Grupo_10.xlsx
@@ -1,12 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\37108032\Desktop\Edson\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC03726C-4A10-4ABB-AA61-79D1BCEA5296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Projeto 1-A" sheetId="1" r:id="rId4"/>
+    <sheet name="Projeto 1-A" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -509,42 +531,48 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
   <fonts count="7">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1F1F1F"/>
       <name val="&quot;Google Sans&quot;"/>
     </font>
@@ -554,7 +582,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -581,59 +609,89 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
-    <border/>
+  <borders count="17">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -643,16 +701,25 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -664,6 +731,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -672,6 +741,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -680,9 +752,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -697,276 +771,280 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="79">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -977,11 +1055,17 @@
     <xdr:ext cx="1238250" cy="238125"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image16.png" title="Imagem"/>
+        <xdr:cNvPr id="2" name="image16.png" title="Imagem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1005,11 +1089,17 @@
     <xdr:ext cx="209550" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png"/>
+        <xdr:cNvPr id="3" name="image5.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1033,11 +1123,17 @@
     <xdr:ext cx="438150" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png" title="Imagem"/>
+        <xdr:cNvPr id="4" name="image12.png" title="Imagem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1061,11 +1157,17 @@
     <xdr:ext cx="495300" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Imagem"/>
+        <xdr:cNvPr id="5" name="image2.png" title="Imagem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1089,11 +1191,17 @@
     <xdr:ext cx="485775" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image23.png"/>
+        <xdr:cNvPr id="6" name="image23.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1117,11 +1225,17 @@
     <xdr:ext cx="180975" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png"/>
+        <xdr:cNvPr id="7" name="image7.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1145,11 +1259,17 @@
     <xdr:ext cx="428625" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png" title="Imagem"/>
+        <xdr:cNvPr id="8" name="image11.png" title="Imagem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1173,11 +1293,17 @@
     <xdr:ext cx="209550" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image17.png" title="Imagem"/>
+        <xdr:cNvPr id="9" name="image17.png" title="Imagem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1201,11 +1327,17 @@
     <xdr:ext cx="371475" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Formula módulo transversal&#10;" id="0" name="image24.png" title="Imagem"/>
+        <xdr:cNvPr id="10" name="image24.png" descr="Formula módulo transversal&#10;" title="Imagem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1229,11 +1361,17 @@
     <xdr:ext cx="571500" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image21.png" title="Imagem"/>
+        <xdr:cNvPr id="11" name="image21.png" title="Imagem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1257,11 +1395,17 @@
     <xdr:ext cx="619125" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png" title="Imagem"/>
+        <xdr:cNvPr id="12" name="image10.png" title="Imagem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1285,11 +1429,17 @@
     <xdr:ext cx="781050" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image18.jpg"/>
+        <xdr:cNvPr id="13" name="image18.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1313,11 +1463,17 @@
     <xdr:ext cx="1152525" cy="352425"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.jpg"/>
+        <xdr:cNvPr id="14" name="image13.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1341,11 +1497,17 @@
     <xdr:ext cx="628650" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.jpg"/>
+        <xdr:cNvPr id="15" name="image14.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1369,11 +1531,17 @@
     <xdr:ext cx="1543050" cy="561975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="16" name="image1.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1397,11 +1565,17 @@
     <xdr:ext cx="504825" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Imagem"/>
+        <xdr:cNvPr id="17" name="image3.png" title="Imagem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1425,11 +1599,17 @@
     <xdr:ext cx="885825" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.jpg"/>
+        <xdr:cNvPr id="18" name="image6.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1453,11 +1633,17 @@
     <xdr:ext cx="1228725" cy="533400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image25.png" title="Imagem"/>
+        <xdr:cNvPr id="19" name="image25.png" title="Imagem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1481,11 +1667,17 @@
     <xdr:ext cx="409575" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image19.png" title="Imagem"/>
+        <xdr:cNvPr id="20" name="image19.png" title="Imagem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1509,11 +1701,17 @@
     <xdr:ext cx="400050" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Imagem"/>
+        <xdr:cNvPr id="21" name="image4.png" title="Imagem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1537,11 +1735,17 @@
     <xdr:ext cx="476250" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image20.png"/>
+        <xdr:cNvPr id="22" name="image20.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1565,11 +1769,17 @@
     <xdr:ext cx="619125" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png" title="Imagem"/>
+        <xdr:cNvPr id="23" name="image9.png" title="Imagem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId22"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1593,11 +1803,17 @@
     <xdr:ext cx="1876425" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image15.png" title="Imagem"/>
+        <xdr:cNvPr id="24" name="image15.png" title="Imagem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId23"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1621,11 +1837,17 @@
     <xdr:ext cx="361950" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image22.png" title="Imagem"/>
+        <xdr:cNvPr id="25" name="image22.png" title="Imagem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId24"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1649,11 +1871,17 @@
     <xdr:ext cx="581025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png" title="Imagem"/>
+        <xdr:cNvPr id="26" name="image8.png" title="Imagem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId25"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1671,7 +1899,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1861,1895 +2089,1852 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A2:O93"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.38"/>
-    <col customWidth="1" min="2" max="2" width="31.13"/>
-    <col customWidth="1" min="3" max="3" width="33.88"/>
-    <col customWidth="1" min="4" max="4" width="18.88"/>
-    <col customWidth="1" min="5" max="5" width="20.63"/>
-    <col customWidth="1" min="6" max="6" width="16.25"/>
-    <col customWidth="1" min="7" max="7" width="13.0"/>
-    <col customWidth="1" min="8" max="8" width="16.63"/>
-    <col customWidth="1" min="10" max="10" width="32.5"/>
-    <col customWidth="1" min="11" max="11" width="50.63"/>
-    <col customWidth="1" min="12" max="12" width="32.13"/>
-    <col customWidth="1" min="13" max="13" width="17.25"/>
-    <col customWidth="1" min="14" max="14" width="29.13"/>
-    <col customWidth="1" min="15" max="15" width="23.5"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" customWidth="1"/>
+    <col min="10" max="10" width="32.44140625" customWidth="1"/>
+    <col min="11" max="11" width="50.6640625" customWidth="1"/>
+    <col min="12" max="12" width="32.109375" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" customWidth="1"/>
+    <col min="14" max="14" width="29.109375" customWidth="1"/>
+    <col min="15" max="15" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" ht="13.2">
+      <c r="A2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="57"/>
+    </row>
+    <row r="3" spans="1:5" ht="13.2">
+      <c r="A3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="40"/>
+    </row>
+    <row r="4" spans="1:5" ht="13.2">
+      <c r="A4" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="11" t="s">
+      <c r="D4" s="62"/>
+      <c r="E4" s="42"/>
+    </row>
+    <row r="5" spans="1:5" ht="13.2">
+      <c r="A5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11">
-        <v>589403.0</v>
-      </c>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="11" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="51">
+        <v>589403</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="38"/>
+    </row>
+    <row r="6" spans="1:5" ht="13.2">
+      <c r="A6" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11">
-        <v>760873.0</v>
-      </c>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="51">
+        <v>760873</v>
+      </c>
+      <c r="D6" s="52"/>
+      <c r="E6" s="38"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.2">
+      <c r="A7" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="7">
-        <v>744744.0</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="13" t="s">
+      <c r="B7" s="54"/>
+      <c r="C7" s="53">
+        <v>744744</v>
+      </c>
+      <c r="D7" s="54"/>
+      <c r="E7" s="40"/>
+    </row>
+    <row r="10" spans="1:5" ht="13.2">
+      <c r="A10" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="16"/>
-      <c r="B11" s="14" t="s">
+      <c r="C10" s="56">
+        <v>3</v>
+      </c>
+      <c r="D10" s="57"/>
+    </row>
+    <row r="11" spans="1:5" ht="13.2">
+      <c r="A11" s="78"/>
+      <c r="B11" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="18">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="19" t="s">
+      <c r="D11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.2">
+      <c r="A12" s="78"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="20">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="19" t="s">
+      <c r="D12" s="5">
         <v>12</v>
       </c>
-      <c r="D13" s="20">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="19" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="13.2">
+      <c r="A13" s="78"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.2">
+      <c r="A14" s="78"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="20">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="19" t="s">
+      <c r="D14" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.2">
+      <c r="A15" s="78"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="20">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="16"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22" t="s">
+      <c r="D15" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="26.4">
+      <c r="A16" s="78"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="23">
-        <v>18000.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="16"/>
-      <c r="B17" s="14" t="s">
+      <c r="D16" s="7">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="13.2">
+      <c r="A17" s="78"/>
+      <c r="B17" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="16"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="25" t="s">
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" ht="13.2">
+      <c r="A18" s="78"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="16"/>
-      <c r="B19" s="14" t="s">
+    <row r="19" spans="1:4" ht="13.2">
+      <c r="A19" s="78"/>
+      <c r="B19" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="20">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="16"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="19" t="s">
+      <c r="D19" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="13.2">
+      <c r="A20" s="78"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="20">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="16"/>
-      <c r="B21" s="14" t="s">
+      <c r="D20" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="13.2">
+      <c r="A21" s="78"/>
+      <c r="B21" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="18">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="16"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="25" t="s">
+      <c r="D21" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="13.2">
+      <c r="A22" s="78"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="5">
         <f>745.7*D21</f>
-        <v>4474.2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="16"/>
-      <c r="B23" s="14" t="s">
+        <v>4474.2000000000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="13.2">
+      <c r="A23" s="78"/>
+      <c r="B23" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="18">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="26" t="s">
+      <c r="D23" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="26.4">
+      <c r="A24" s="78"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="20">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="22" t="s">
+      <c r="D24" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="39.6">
+      <c r="A25" s="78"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="16"/>
-      <c r="B26" s="27" t="s">
+    <row r="26" spans="1:4" ht="39.6">
+      <c r="A26" s="78"/>
+      <c r="B26" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="16"/>
-      <c r="B27" s="14" t="s">
+    <row r="27" spans="1:4" ht="13.2">
+      <c r="A27" s="78"/>
+      <c r="B27" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="30" t="s">
+    <row r="28" spans="1:4" ht="26.4">
+      <c r="A28" s="78"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="20">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="26" t="s">
+      <c r="D28" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="26.4">
+      <c r="A29" s="78"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="5">
         <f>RADIANS(D28)</f>
-        <v>0.436332313</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="16"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="25" t="s">
+        <v>0.43633231299858238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="13.2">
+      <c r="A30" s="78"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="16"/>
-      <c r="B31" s="31" t="s">
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="13.2">
+      <c r="A31" s="78"/>
+      <c r="B31" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="30" t="s">
+    <row r="32" spans="1:4" ht="26.4">
+      <c r="A32" s="78"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="20">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="26" t="s">
+      <c r="D32" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="26.4">
+      <c r="A33" s="78"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="5">
         <f>RADIANS(D32)</f>
-        <v>0.436332313</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="32" t="s">
+        <v>0.43633231299858238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="13.2">
+      <c r="A34" s="78"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="20">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="19" t="s">
+      <c r="D34" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="13.2">
+      <c r="A35" s="78"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="5">
         <f>RADIANS(D34)</f>
-        <v>0.1745329252</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="16"/>
-      <c r="B36" s="14" t="s">
+        <v>0.17453292519943295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="13.2">
+      <c r="A36" s="78"/>
+      <c r="B36" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="34"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="26" t="s">
+      <c r="C36" s="2"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:15" ht="26.4">
+      <c r="A37" s="78"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="19" t="s">
+    <row r="38" spans="1:15" ht="13.2">
+      <c r="A38" s="78"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="20">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="16"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="25" t="s">
+      <c r="D38" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="13.2">
+      <c r="A39" s="78"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="23">
-        <v>90.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="16"/>
-      <c r="B40" s="14" t="s">
+      <c r="D39" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="13.2">
+      <c r="A40" s="78"/>
+      <c r="B40" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="34"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="19" t="s">
+      <c r="C40" s="2"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:15" ht="13.2">
+      <c r="A41" s="78"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="19" t="s">
+    <row r="42" spans="1:15" ht="13.2">
+      <c r="A42" s="78"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="20">
-        <v>240.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="16"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="37" t="s">
+      <c r="D42" s="5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="39.6">
+      <c r="A43" s="78"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="16"/>
-      <c r="B44" s="14" t="s">
+    <row r="44" spans="1:15" ht="26.4">
+      <c r="A44" s="78"/>
+      <c r="B44" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="33"/>
-      <c r="D44" s="38" t="s">
+      <c r="C44" s="2"/>
+      <c r="D44" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="19" t="s">
+    <row r="45" spans="1:15" ht="13.2">
+      <c r="A45" s="78"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="20">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="16"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="39" t="s">
+      <c r="D45" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="52.8">
+      <c r="A46" s="78"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="40" t="s">
+      <c r="D46" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="M46" s="41"/>
-      <c r="N46" s="41"/>
-      <c r="O46" s="41"/>
-    </row>
-    <row r="47" ht="47.25" customHeight="1">
-      <c r="A47" s="16"/>
-      <c r="B47" s="14" t="s">
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+    </row>
+    <row r="47" spans="1:15" ht="47.25" customHeight="1">
+      <c r="A47" s="78"/>
+      <c r="B47" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="42" t="s">
+      <c r="C47" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D47" s="38">
+      <c r="D47" s="15">
         <f>D20*60/(D19/2)</f>
         <v>1200</v>
       </c>
-      <c r="E47" s="37" t="s">
+      <c r="E47" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="F47" s="43"/>
-      <c r="M47" s="44"/>
-    </row>
-    <row r="48" ht="40.5" customHeight="1">
-      <c r="A48" s="42"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="39" t="s">
+      <c r="F47" s="20"/>
+      <c r="M47" s="21"/>
+    </row>
+    <row r="48" spans="1:15" ht="40.5" customHeight="1">
+      <c r="A48" s="78"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D48" s="45">
+      <c r="D48" s="22">
         <f>(D47*2*PI())/60</f>
-        <v>125.6637061</v>
-      </c>
-      <c r="M48" s="44"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="42"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="26"/>
-      <c r="M49" s="44"/>
-    </row>
-    <row r="50">
-      <c r="M50" s="44"/>
-    </row>
-    <row r="51">
-      <c r="C51" s="46" t="s">
+        <v>125.66370614359172</v>
+      </c>
+      <c r="M48" s="21"/>
+    </row>
+    <row r="49" spans="1:14" ht="13.2">
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="9"/>
+      <c r="M49" s="21"/>
+    </row>
+    <row r="50" spans="1:14" ht="13.2">
+      <c r="M50" s="21"/>
+    </row>
+    <row r="51" spans="1:14" ht="13.2">
+      <c r="C51" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="D51" s="47" t="s">
+      <c r="D51" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="48" t="s">
+      <c r="E51" s="42"/>
+      <c r="F51" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="G51" s="10"/>
-      <c r="H51" s="49" t="s">
+      <c r="G51" s="42"/>
+      <c r="H51" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="I51" s="10"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="50"/>
-      <c r="M51" s="42"/>
-      <c r="N51" s="50"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="51"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="52" t="s">
+      <c r="I51" s="42"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+    </row>
+    <row r="52" spans="1:14" ht="13.2">
+      <c r="A52" s="23"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="E52" s="52" t="s">
+      <c r="E52" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F52" s="52" t="s">
+      <c r="F52" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="G52" s="52" t="s">
+      <c r="G52" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="H52" s="52" t="s">
+      <c r="H52" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="I52" s="52" t="s">
+      <c r="I52" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="50"/>
-      <c r="M52" s="42"/>
-      <c r="N52" s="50"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="53" t="s">
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+    </row>
+    <row r="53" spans="1:14" ht="52.8">
+      <c r="A53" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C53" s="54" t="s">
+      <c r="C53" s="25" t="s">
         <v>75</v>
       </c>
       <c r="D53" s="55">
-        <v>5.0</v>
-      </c>
-      <c r="F53" s="56">
+        <v>5</v>
+      </c>
+      <c r="E53" s="52"/>
+      <c r="F53" s="65">
         <f>D53^ (3/4)</f>
-        <v>3.343701525</v>
-      </c>
-      <c r="G53" s="3"/>
+        <v>3.3437015248821096</v>
+      </c>
+      <c r="G53" s="57"/>
       <c r="H53" s="55">
         <f>D24/(D53*F53)</f>
-        <v>2.39255805</v>
-      </c>
-      <c r="I53" s="12"/>
-      <c r="J53" s="42" t="s">
+        <v>2.3925580499539532</v>
+      </c>
+      <c r="I53" s="38"/>
+      <c r="J53" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="K53" s="50"/>
-      <c r="L53" s="42" t="s">
+      <c r="K53" s="19"/>
+      <c r="L53" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="M53" s="50"/>
-      <c r="N53" s="50"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="57"/>
-      <c r="B54" s="58" t="s">
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+    </row>
+    <row r="54" spans="1:14" ht="145.19999999999999">
+      <c r="A54" s="49"/>
+      <c r="B54" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C54" s="59" t="s">
+      <c r="C54" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="D54" s="55">
-        <v>14.0</v>
-      </c>
-      <c r="E54" s="55">
-        <v>70.0</v>
-      </c>
-      <c r="F54" s="51">
-        <v>14.0</v>
-      </c>
-      <c r="G54" s="60">
+      <c r="D54" s="20">
+        <v>14</v>
+      </c>
+      <c r="E54" s="20">
+        <v>70</v>
+      </c>
+      <c r="F54" s="23">
+        <v>14</v>
+      </c>
+      <c r="G54" s="28">
         <f>F54*F53</f>
-        <v>46.81182135</v>
-      </c>
-      <c r="H54" s="55">
-        <v>14.0</v>
-      </c>
-      <c r="I54" s="60">
+        <v>46.811821348349532</v>
+      </c>
+      <c r="H54" s="20">
+        <v>14</v>
+      </c>
+      <c r="I54" s="28">
         <f>H54*H53</f>
-        <v>33.4958127</v>
-      </c>
-      <c r="J54" s="42" t="s">
+        <v>33.495812699355341</v>
+      </c>
+      <c r="J54" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="K54" s="61" t="s">
+      <c r="K54" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="L54" s="50"/>
-      <c r="M54" s="42" t="s">
+      <c r="L54" s="19"/>
+      <c r="M54" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="N54" s="50"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="57"/>
-      <c r="B55" s="58" t="s">
+      <c r="N54" s="19"/>
+    </row>
+    <row r="55" spans="1:14" ht="66">
+      <c r="A55" s="49"/>
+      <c r="B55" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C55" s="59" t="s">
+      <c r="C55" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="D55" s="55">
-        <v>14.0</v>
-      </c>
-      <c r="E55" s="55">
-        <v>69.0</v>
-      </c>
-      <c r="F55" s="51">
-        <v>14.0</v>
-      </c>
-      <c r="G55" s="60">
-        <v>47.0</v>
-      </c>
-      <c r="H55" s="55">
-        <v>14.0</v>
-      </c>
-      <c r="I55" s="60">
-        <v>34.0</v>
-      </c>
-      <c r="J55" s="42" t="s">
+      <c r="D55" s="20">
+        <v>14</v>
+      </c>
+      <c r="E55" s="20">
+        <v>69</v>
+      </c>
+      <c r="F55" s="23">
+        <v>14</v>
+      </c>
+      <c r="G55" s="28">
+        <v>47</v>
+      </c>
+      <c r="H55" s="20">
+        <v>14</v>
+      </c>
+      <c r="I55" s="28">
+        <v>34</v>
+      </c>
+      <c r="J55" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="K55" s="42" t="s">
+      <c r="K55" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="L55" s="50"/>
-      <c r="M55" s="50"/>
-      <c r="N55" s="50"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="57"/>
-      <c r="B56" s="58" t="s">
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+    </row>
+    <row r="56" spans="1:14" ht="13.2">
+      <c r="A56" s="49"/>
+      <c r="B56" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="59" t="s">
+      <c r="C56" s="27" t="s">
         <v>75</v>
       </c>
       <c r="D56" s="55">
         <f>E55/D55</f>
-        <v>4.928571429</v>
-      </c>
-      <c r="F56" s="51">
+        <v>4.9285714285714288</v>
+      </c>
+      <c r="E56" s="52"/>
+      <c r="F56" s="37">
         <f>G55/F55</f>
-        <v>3.357142857</v>
-      </c>
-      <c r="G56" s="12"/>
+        <v>3.3571428571428572</v>
+      </c>
+      <c r="G56" s="38"/>
       <c r="H56" s="55">
         <f>I55/H55</f>
-        <v>2.428571429</v>
-      </c>
-      <c r="I56" s="12"/>
-      <c r="J56" s="42" t="s">
+        <v>2.4285714285714284</v>
+      </c>
+      <c r="I56" s="38"/>
+      <c r="J56" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="K56" s="50"/>
-      <c r="L56" s="50"/>
-      <c r="M56" s="50"/>
-      <c r="N56" s="50"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="57"/>
-      <c r="B57" s="58" t="s">
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+    </row>
+    <row r="57" spans="1:14" ht="26.4">
+      <c r="A57" s="49"/>
+      <c r="B57" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C57" s="51" t="s">
+      <c r="C57" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D57" s="51">
+      <c r="D57" s="37">
         <f>D56*F56*H56</f>
-        <v>40.18294461</v>
-      </c>
-      <c r="I57" s="12"/>
-      <c r="J57" s="42" t="s">
+        <v>40.18294460641399</v>
+      </c>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="K57" s="50"/>
-      <c r="L57" s="50"/>
-      <c r="M57" s="50"/>
-      <c r="N57" s="50"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="57"/>
-      <c r="B58" s="58" t="s">
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+    </row>
+    <row r="58" spans="1:14" ht="13.2">
+      <c r="A58" s="49"/>
+      <c r="B58" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C58" s="59" t="s">
+      <c r="C58" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D58" s="62">
+      <c r="D58" s="64">
         <f>IF((D53-D56)&lt;0, ((D53-D56)/D56)*-1, ((D53-D56)/D56))</f>
-        <v>0.01449275362</v>
-      </c>
+        <v>1.4492753623188354E-2</v>
+      </c>
+      <c r="E58" s="52"/>
       <c r="F58" s="63">
         <f>IF((F53-F56)&lt;0, ((F53-F56)/F56)*-1, ((F53-F56)/F56))</f>
-        <v>0.004003801099</v>
-      </c>
-      <c r="G58" s="12"/>
-      <c r="H58" s="62">
+        <v>4.0038010989460991E-3</v>
+      </c>
+      <c r="G58" s="38"/>
+      <c r="H58" s="64">
         <f>IF((H53-H56)&lt;0, ((H53-H56)/H56)*-1, ((H53-H56)/H56))</f>
-        <v>0.01482903825</v>
-      </c>
-      <c r="I58" s="12"/>
-      <c r="L58" s="50"/>
-      <c r="M58" s="50"/>
-      <c r="N58" s="50"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="57"/>
-      <c r="B59" s="58" t="s">
+        <v>1.4829038254254504E-2</v>
+      </c>
+      <c r="I58" s="38"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+    </row>
+    <row r="59" spans="1:14" ht="26.4">
+      <c r="A59" s="49"/>
+      <c r="B59" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="C59" s="59" t="s">
+      <c r="C59" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D59" s="62">
+      <c r="D59" s="64">
         <f>IF((D24-D57)&lt;0,((D24-D57)/D57)*-1,((D24-D57)/D57))</f>
-        <v>0.00455279244</v>
-      </c>
-      <c r="I59" s="12"/>
-      <c r="J59" s="42" t="s">
+        <v>4.5527924398250435E-3</v>
+      </c>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="K59" s="42" t="s">
+      <c r="K59" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="L59" s="50"/>
-      <c r="M59" s="50"/>
-      <c r="N59" s="50"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="57"/>
-      <c r="B60" s="58" t="s">
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+    </row>
+    <row r="60" spans="1:14" ht="118.8">
+      <c r="A60" s="49"/>
+      <c r="B60" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="C60" s="51" t="s">
+      <c r="C60" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="51">
-        <v>2.0</v>
-      </c>
-      <c r="E60" s="12"/>
+      <c r="D60" s="37">
+        <v>2</v>
+      </c>
+      <c r="E60" s="38"/>
       <c r="F60" s="55">
         <f>D60*((1/F56)/(1/D56))</f>
-        <v>2.936170213</v>
-      </c>
-      <c r="G60" s="12"/>
-      <c r="H60" s="51">
+        <v>2.9361702127659575</v>
+      </c>
+      <c r="G60" s="38"/>
+      <c r="H60" s="37">
         <f>F60*((1/H56)/(1/F56))</f>
-        <v>4.058823529</v>
-      </c>
-      <c r="I60" s="12"/>
-      <c r="J60" s="61" t="s">
+        <v>4.0588235294117654</v>
+      </c>
+      <c r="I60" s="38"/>
+      <c r="J60" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="K60" s="42" t="s">
+      <c r="K60" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="L60" s="50"/>
-      <c r="M60" s="42" t="s">
+      <c r="L60" s="19"/>
+      <c r="M60" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="N60" s="50"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="57"/>
-      <c r="B61" s="58" t="s">
+      <c r="N60" s="19"/>
+    </row>
+    <row r="61" spans="1:14" ht="26.4">
+      <c r="A61" s="49"/>
+      <c r="B61" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C61" s="59" t="s">
+      <c r="C61" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D61" s="51">
-        <v>2.0</v>
-      </c>
-      <c r="E61" s="12"/>
-      <c r="F61" s="51">
-        <v>3.0</v>
-      </c>
-      <c r="G61" s="12"/>
-      <c r="H61" s="51">
-        <v>4.0</v>
-      </c>
-      <c r="I61" s="12"/>
-      <c r="J61" s="42" t="s">
+      <c r="D61" s="37">
+        <v>2</v>
+      </c>
+      <c r="E61" s="38"/>
+      <c r="F61" s="37">
+        <v>3</v>
+      </c>
+      <c r="G61" s="38"/>
+      <c r="H61" s="37">
+        <v>4</v>
+      </c>
+      <c r="I61" s="38"/>
+      <c r="J61" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="K61" s="50"/>
-      <c r="L61" s="50"/>
-      <c r="M61" s="50"/>
-      <c r="N61" s="50"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="57"/>
-      <c r="B62" s="58" t="s">
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+    </row>
+    <row r="62" spans="1:14" ht="39.6">
+      <c r="A62" s="49"/>
+      <c r="B62" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="C62" s="59" t="s">
+      <c r="C62" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D62" s="51">
+      <c r="D62" s="37">
         <f>D61</f>
         <v>2</v>
       </c>
-      <c r="E62" s="12"/>
-      <c r="F62" s="51">
+      <c r="E62" s="38"/>
+      <c r="F62" s="37">
         <f>F61/COS($D$35)</f>
-        <v>3.046279836</v>
-      </c>
-      <c r="G62" s="12"/>
-      <c r="H62" s="51">
+        <v>3.0462798356572351</v>
+      </c>
+      <c r="G62" s="38"/>
+      <c r="H62" s="37">
         <f>H61/COS($D$35)</f>
-        <v>4.061706448</v>
-      </c>
-      <c r="I62" s="12"/>
-      <c r="J62" s="37" t="s">
+        <v>4.0617064475429805</v>
+      </c>
+      <c r="I62" s="38"/>
+      <c r="J62" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="K62" s="50"/>
-      <c r="L62" s="50"/>
-      <c r="M62" s="50"/>
-      <c r="N62" s="50"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="57"/>
-      <c r="B63" s="58" t="s">
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+    </row>
+    <row r="63" spans="1:14" ht="39.6">
+      <c r="A63" s="49"/>
+      <c r="B63" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C63" s="59" t="s">
+      <c r="C63" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D63" s="64">
+      <c r="D63" s="23">
         <f>D55*D62</f>
         <v>28</v>
       </c>
-      <c r="E63" s="65">
+      <c r="E63" s="28">
         <f>E55*D62</f>
         <v>138</v>
       </c>
-      <c r="F63" s="64">
+      <c r="F63" s="23">
         <f>F55*F62</f>
-        <v>42.6479177</v>
-      </c>
-      <c r="G63" s="65">
+        <v>42.647917699201294</v>
+      </c>
+      <c r="G63" s="28">
         <f>G55*F62</f>
-        <v>143.1751523</v>
-      </c>
-      <c r="H63" s="64">
+        <v>143.17515227589004</v>
+      </c>
+      <c r="H63" s="23">
         <f>H55*H62</f>
-        <v>56.86389027</v>
-      </c>
-      <c r="I63" s="65">
+        <v>56.863890265601725</v>
+      </c>
+      <c r="I63" s="28">
         <f>I55*H62</f>
-        <v>138.0980192</v>
-      </c>
-      <c r="J63" s="37" t="s">
+        <v>138.09801921646132</v>
+      </c>
+      <c r="J63" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="K63" s="50"/>
-      <c r="L63" s="50"/>
-      <c r="M63" s="50"/>
-      <c r="N63" s="50"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="57"/>
-      <c r="B64" s="58" t="s">
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+    </row>
+    <row r="64" spans="1:14" ht="39.6">
+      <c r="A64" s="49"/>
+      <c r="B64" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="C64" s="59" t="s">
+      <c r="C64" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D64" s="64">
-        <f t="shared" ref="D64:E64" si="1">D63*COS($D$29)</f>
-        <v>25.37661804</v>
-      </c>
-      <c r="E64" s="65">
+      <c r="D64" s="23">
+        <f t="shared" ref="D64:E64" si="0">D63*COS($D$29)</f>
+        <v>25.376618037026198</v>
+      </c>
+      <c r="E64" s="28">
+        <f t="shared" si="0"/>
+        <v>125.07047461105769</v>
+      </c>
+      <c r="F64" s="23">
+        <f t="shared" ref="F64:I64" si="1">E63*COS($D$33)</f>
+        <v>125.07047461105769</v>
+      </c>
+      <c r="G64" s="28">
         <f t="shared" si="1"/>
-        <v>125.0704746</v>
-      </c>
-      <c r="F64" s="64">
-        <f t="shared" ref="F64:I64" si="2">E63*COS($D$33)</f>
-        <v>125.0704746</v>
-      </c>
-      <c r="G64" s="65">
+        <v>38.652139911684301</v>
+      </c>
+      <c r="H64" s="23">
+        <f t="shared" si="1"/>
+        <v>129.76075541779727</v>
+      </c>
+      <c r="I64" s="28">
+        <f t="shared" si="1"/>
+        <v>51.536186548912397</v>
+      </c>
+      <c r="J64" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+    </row>
+    <row r="65" spans="1:14" ht="39.6">
+      <c r="A65" s="49"/>
+      <c r="B65" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D65" s="23">
+        <f t="shared" ref="D65:I65" si="2">D63-(2*D76)</f>
+        <v>23</v>
+      </c>
+      <c r="E65" s="28">
         <f t="shared" si="2"/>
-        <v>38.65213991</v>
-      </c>
-      <c r="H64" s="64">
+        <v>133</v>
+      </c>
+      <c r="F65" s="23">
         <f t="shared" si="2"/>
-        <v>129.7607554</v>
-      </c>
-      <c r="I64" s="65">
+        <v>35.147917699201294</v>
+      </c>
+      <c r="G65" s="28">
         <f t="shared" si="2"/>
-        <v>51.53618655</v>
-      </c>
-      <c r="J64" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="K64" s="50"/>
-      <c r="L64" s="50"/>
-      <c r="M64" s="50"/>
-      <c r="N64" s="50"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="57"/>
-      <c r="B65" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="C65" s="59" t="s">
+        <v>135.67515227589004</v>
+      </c>
+      <c r="H65" s="23">
+        <f t="shared" si="2"/>
+        <v>46.863890265601725</v>
+      </c>
+      <c r="I65" s="28">
+        <f t="shared" si="2"/>
+        <v>128.09801921646132</v>
+      </c>
+      <c r="J65" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
+    </row>
+    <row r="66" spans="1:14" ht="27.75" customHeight="1">
+      <c r="A66" s="49"/>
+      <c r="B66" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D65" s="64">
-        <f t="shared" ref="D65:I65" si="3">D63-(2*D76)</f>
-        <v>23</v>
-      </c>
-      <c r="E65" s="65">
+      <c r="D66" s="23">
+        <f t="shared" ref="D66:I66" si="3">D63+(2*D75)</f>
+        <v>32</v>
+      </c>
+      <c r="E66" s="28">
         <f t="shared" si="3"/>
-        <v>133</v>
-      </c>
-      <c r="F65" s="64">
+        <v>142</v>
+      </c>
+      <c r="F66" s="23">
         <f t="shared" si="3"/>
-        <v>35.1479177</v>
-      </c>
-      <c r="G65" s="65">
+        <v>48.647917699201294</v>
+      </c>
+      <c r="G66" s="28">
         <f t="shared" si="3"/>
-        <v>135.6751523</v>
-      </c>
-      <c r="H65" s="64">
+        <v>149.17515227589004</v>
+      </c>
+      <c r="H66" s="23">
         <f t="shared" si="3"/>
-        <v>46.86389027</v>
-      </c>
-      <c r="I65" s="65">
+        <v>64.863890265601725</v>
+      </c>
+      <c r="I66" s="28">
         <f t="shared" si="3"/>
-        <v>128.0980192</v>
-      </c>
-      <c r="J65" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="K65" s="50"/>
-      <c r="L65" s="50"/>
-      <c r="M65" s="50"/>
-      <c r="N65" s="50"/>
-    </row>
-    <row r="66" ht="27.75" customHeight="1">
-      <c r="A66" s="57"/>
-      <c r="B66" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="C66" s="59" t="s">
+        <v>146.09801921646132</v>
+      </c>
+      <c r="J66" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K66" s="4"/>
+    </row>
+    <row r="67" spans="1:14" ht="39.6">
+      <c r="A67" s="49"/>
+      <c r="B67" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C67" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D66" s="64">
-        <f t="shared" ref="D66:I66" si="4">D63+(2*D75)</f>
-        <v>32</v>
-      </c>
-      <c r="E66" s="65">
+      <c r="D67" s="23">
+        <f t="shared" ref="D67:I67" si="4">D63-(2*D75)</f>
+        <v>24</v>
+      </c>
+      <c r="E67" s="28">
         <f t="shared" si="4"/>
-        <v>142</v>
-      </c>
-      <c r="F66" s="64">
+        <v>134</v>
+      </c>
+      <c r="F67" s="23">
         <f t="shared" si="4"/>
-        <v>48.6479177</v>
-      </c>
-      <c r="G66" s="65">
+        <v>36.647917699201294</v>
+      </c>
+      <c r="G67" s="28">
         <f t="shared" si="4"/>
-        <v>149.1751523</v>
-      </c>
-      <c r="H66" s="64">
+        <v>137.17515227589004</v>
+      </c>
+      <c r="H67" s="23">
         <f t="shared" si="4"/>
-        <v>64.86389027</v>
-      </c>
-      <c r="I66" s="65">
+        <v>48.863890265601725</v>
+      </c>
+      <c r="I67" s="28">
         <f t="shared" si="4"/>
-        <v>146.0980192</v>
-      </c>
-      <c r="J66" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="K66" s="66"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="57"/>
-      <c r="B67" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="C67" s="59" t="s">
+        <v>130.09801921646132</v>
+      </c>
+      <c r="J67" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="K67" s="4"/>
+    </row>
+    <row r="68" spans="1:14" ht="44.25" customHeight="1">
+      <c r="A68" s="49"/>
+      <c r="B68" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="D68" s="23">
+        <f>ATAN(TAN(D29)/(COS(D30)))</f>
+        <v>0.43633231299858238</v>
+      </c>
+      <c r="E68" s="28">
+        <f>ATAN(TAN(D29)/(COS(D30)))</f>
+        <v>0.43633231299858238</v>
+      </c>
+      <c r="F68" s="23">
+        <f t="shared" ref="F68:I68" si="5">ATAN(TAN($D$33)/(COS($D$35)))</f>
+        <v>0.44222474442054582</v>
+      </c>
+      <c r="G68" s="28">
+        <f t="shared" si="5"/>
+        <v>0.44222474442054582</v>
+      </c>
+      <c r="H68" s="23">
+        <f t="shared" si="5"/>
+        <v>0.44222474442054582</v>
+      </c>
+      <c r="I68" s="28">
+        <f t="shared" si="5"/>
+        <v>0.44222474442054582</v>
+      </c>
+      <c r="J68" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="K68" s="4"/>
+    </row>
+    <row r="69" spans="1:14" ht="13.2">
+      <c r="A69" s="49"/>
+      <c r="B69" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D67" s="64">
-        <f t="shared" ref="D67:I67" si="5">D63-(2*D75)</f>
-        <v>24</v>
-      </c>
-      <c r="E67" s="65">
-        <f t="shared" si="5"/>
-        <v>134</v>
-      </c>
-      <c r="F67" s="64">
-        <f t="shared" si="5"/>
-        <v>36.6479177</v>
-      </c>
-      <c r="G67" s="65">
-        <f t="shared" si="5"/>
-        <v>137.1751523</v>
-      </c>
-      <c r="H67" s="64">
-        <f t="shared" si="5"/>
-        <v>48.86389027</v>
-      </c>
-      <c r="I67" s="65">
-        <f t="shared" si="5"/>
-        <v>130.0980192</v>
-      </c>
-      <c r="J67" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="K67" s="66"/>
-    </row>
-    <row r="68" ht="44.25" customHeight="1">
-      <c r="A68" s="57"/>
-      <c r="B68" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="C68" s="59" t="s">
-        <v>115</v>
-      </c>
-      <c r="D68" s="64">
-        <f>ATAN(TAN(D29)/(COS(D30)))</f>
-        <v>0.436332313</v>
-      </c>
-      <c r="E68" s="65">
-        <f>ATAN(TAN(D29)/(COS(D30)))</f>
-        <v>0.436332313</v>
-      </c>
-      <c r="F68" s="64">
-        <f t="shared" ref="F68:I68" si="6">ATAN(TAN($D$33)/(COS($D$35)))</f>
-        <v>0.4422247444</v>
-      </c>
-      <c r="G68" s="65">
-        <f t="shared" si="6"/>
-        <v>0.4422247444</v>
-      </c>
-      <c r="H68" s="64">
-        <f t="shared" si="6"/>
-        <v>0.4422247444</v>
-      </c>
-      <c r="I68" s="65">
-        <f t="shared" si="6"/>
-        <v>0.4422247444</v>
-      </c>
-      <c r="J68" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="K68" s="66"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="57"/>
-      <c r="B69" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="C69" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="D69" s="64">
+      <c r="D69" s="37">
         <f>(D63+E63)/2</f>
         <v>83</v>
       </c>
-      <c r="E69" s="12"/>
-      <c r="F69" s="64">
+      <c r="E69" s="38"/>
+      <c r="F69" s="37">
         <f>(F63+G63)/2</f>
-        <v>92.91153499</v>
-      </c>
-      <c r="G69" s="12"/>
-      <c r="H69" s="64">
+        <v>92.911534987545664</v>
+      </c>
+      <c r="G69" s="38"/>
+      <c r="H69" s="37">
         <f>(H63+I63)/2</f>
-        <v>97.48095474</v>
-      </c>
-      <c r="I69" s="12"/>
-      <c r="J69" s="44" t="s">
+        <v>97.480954741031525</v>
+      </c>
+      <c r="I69" s="38"/>
+      <c r="J69" s="21" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="57"/>
-      <c r="B70" s="58" t="s">
+    <row r="70" spans="1:14" ht="39.6">
+      <c r="A70" s="49"/>
+      <c r="B70" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="C70" s="59" t="s">
+      <c r="C70" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D70" s="64">
-        <f t="shared" ref="D70:E70" si="7">(PI()*$D$61)/D55</f>
-        <v>0.4487989505</v>
-      </c>
-      <c r="E70" s="65">
+      <c r="D70" s="23">
+        <f t="shared" ref="D70:E70" si="6">(PI()*$D$61)/D55</f>
+        <v>0.44879895051282759</v>
+      </c>
+      <c r="E70" s="28">
+        <f t="shared" si="6"/>
+        <v>9.1060656625791103E-2</v>
+      </c>
+      <c r="F70" s="23">
+        <f>(PI()*F61)/F55</f>
+        <v>0.67319842576924138</v>
+      </c>
+      <c r="G70" s="28">
+        <f>(PI()*F61)/G55</f>
+        <v>0.20052719065466765</v>
+      </c>
+      <c r="H70" s="23">
+        <f t="shared" ref="H70:I70" si="7">(PI()*$H$61)/H55</f>
+        <v>0.89759790102565518</v>
+      </c>
+      <c r="I70" s="28">
         <f t="shared" si="7"/>
-        <v>0.09106065663</v>
-      </c>
-      <c r="F70" s="64">
-        <f>(PI()*F61)/F55</f>
-        <v>0.6731984258</v>
-      </c>
-      <c r="G70" s="65">
-        <f>(PI()*F61)/G55</f>
-        <v>0.2005271907</v>
-      </c>
-      <c r="H70" s="64">
-        <f t="shared" ref="H70:I70" si="8">(PI()*$H$61)/H55</f>
-        <v>0.897597901</v>
-      </c>
-      <c r="I70" s="65">
+        <v>0.36959913571644626</v>
+      </c>
+      <c r="J70" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="K70" s="4"/>
+    </row>
+    <row r="71" spans="1:14" ht="39.6">
+      <c r="A71" s="49"/>
+      <c r="B71" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D71" s="23">
+        <f t="shared" ref="D71:E71" si="8">D70*COS($D$29)</f>
+        <v>0.40674998366365173</v>
+      </c>
+      <c r="E71" s="28">
         <f t="shared" si="8"/>
-        <v>0.3695991357</v>
-      </c>
-      <c r="J70" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="K70" s="66"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="57"/>
-      <c r="B71" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="C71" s="59" t="s">
+        <v>8.2528982192624986E-2</v>
+      </c>
+      <c r="F71" s="23">
+        <f t="shared" ref="F71:I71" si="9">F70*COS($D$32)</f>
+        <v>0.66727617256453597</v>
+      </c>
+      <c r="G71" s="28">
+        <f t="shared" si="9"/>
+        <v>0.19876311523198945</v>
+      </c>
+      <c r="H71" s="23">
+        <f t="shared" si="9"/>
+        <v>0.88970156341938123</v>
+      </c>
+      <c r="I71" s="28">
+        <f t="shared" si="9"/>
+        <v>0.3663477025844511</v>
+      </c>
+      <c r="J71" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K71" s="4"/>
+    </row>
+    <row r="72" spans="1:14" ht="42" customHeight="1">
+      <c r="A72" s="49"/>
+      <c r="B72" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D71" s="64">
-        <f t="shared" ref="D71:E71" si="9">D70*COS($D$29)</f>
-        <v>0.4067499837</v>
-      </c>
-      <c r="E71" s="65">
-        <f t="shared" si="9"/>
-        <v>0.08252898219</v>
-      </c>
-      <c r="F71" s="64">
-        <f t="shared" ref="F71:I71" si="10">F70*COS($D$32)</f>
-        <v>0.6672761726</v>
-      </c>
-      <c r="G71" s="65">
+      <c r="D72" s="23">
+        <f>PI()*D62</f>
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="E72" s="28">
+        <f>PI()*D62</f>
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="F72" s="23">
+        <f>PI()*F62</f>
+        <v>9.5701703524794919</v>
+      </c>
+      <c r="G72" s="28">
+        <f>PI()*F62</f>
+        <v>9.5701703524794919</v>
+      </c>
+      <c r="H72" s="23">
+        <f>PI()*H62</f>
+        <v>12.760227136639324</v>
+      </c>
+      <c r="I72" s="28">
+        <f>PI()*H62</f>
+        <v>12.760227136639324</v>
+      </c>
+      <c r="J72" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K72" s="4"/>
+    </row>
+    <row r="73" spans="1:14" ht="39.6">
+      <c r="A73" s="49"/>
+      <c r="B73" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="E73" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F73" s="23">
+        <f t="shared" ref="F73:I73" si="10">F72/COS($D$35)</f>
+        <v>9.7178056561876573</v>
+      </c>
+      <c r="G73" s="28">
         <f t="shared" si="10"/>
-        <v>0.1987631152</v>
-      </c>
-      <c r="H71" s="64">
+        <v>9.7178056561876573</v>
+      </c>
+      <c r="H73" s="23">
         <f t="shared" si="10"/>
-        <v>0.8897015634</v>
-      </c>
-      <c r="I71" s="65">
+        <v>12.95707420825021</v>
+      </c>
+      <c r="I73" s="28">
         <f t="shared" si="10"/>
-        <v>0.3663477026</v>
-      </c>
-      <c r="J71" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="K71" s="66"/>
-    </row>
-    <row r="72" ht="42.0" customHeight="1">
-      <c r="A72" s="57"/>
-      <c r="B72" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="C72" s="59" t="s">
+        <v>12.95707420825021</v>
+      </c>
+      <c r="J73" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K73" s="21"/>
+    </row>
+    <row r="74" spans="1:14" ht="39.6">
+      <c r="A74" s="49"/>
+      <c r="B74" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C74" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D72" s="64">
-        <f>PI()*D62</f>
-        <v>6.283185307</v>
-      </c>
-      <c r="E72" s="65">
-        <f>PI()*D62</f>
-        <v>6.283185307</v>
-      </c>
-      <c r="F72" s="64">
-        <f>PI()*F62</f>
-        <v>9.570170352</v>
-      </c>
-      <c r="G72" s="65">
-        <f>PI()*F62</f>
-        <v>9.570170352</v>
-      </c>
-      <c r="H72" s="64">
-        <f>PI()*H62</f>
-        <v>12.76022714</v>
-      </c>
-      <c r="I72" s="65">
-        <f>PI()*H62</f>
-        <v>12.76022714</v>
-      </c>
-      <c r="J72" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="K72" s="66"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="57"/>
-      <c r="B73" s="58" t="s">
-        <v>125</v>
-      </c>
-      <c r="C73" s="59" t="s">
+      <c r="D74" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="E74" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F74" s="23">
+        <f t="shared" ref="F74:I74" si="11">F73/TAN($D$35)</f>
+        <v>55.112414544515204</v>
+      </c>
+      <c r="G74" s="28">
+        <f t="shared" si="11"/>
+        <v>55.112414544515204</v>
+      </c>
+      <c r="H74" s="23">
+        <f t="shared" si="11"/>
+        <v>73.483219392686948</v>
+      </c>
+      <c r="I74" s="28">
+        <f t="shared" si="11"/>
+        <v>73.483219392686948</v>
+      </c>
+      <c r="J74" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K74" s="21"/>
+    </row>
+    <row r="75" spans="1:14" ht="13.2">
+      <c r="A75" s="49"/>
+      <c r="B75" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="E73" s="60" t="s">
-        <v>126</v>
-      </c>
-      <c r="F73" s="64">
-        <f t="shared" ref="F73:I73" si="11">F72/COS($D$35)</f>
-        <v>9.717805656</v>
-      </c>
-      <c r="G73" s="65">
-        <f t="shared" si="11"/>
-        <v>9.717805656</v>
-      </c>
-      <c r="H73" s="64">
-        <f t="shared" si="11"/>
-        <v>12.95707421</v>
-      </c>
-      <c r="I73" s="65">
-        <f t="shared" si="11"/>
-        <v>12.95707421</v>
-      </c>
-      <c r="J73" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="K73" s="68"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="57"/>
-      <c r="B74" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="C74" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="D74" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="E74" s="60" t="s">
-        <v>126</v>
-      </c>
-      <c r="F74" s="64">
-        <f t="shared" ref="F74:I74" si="12">F73/TAN($D$35)</f>
-        <v>55.11241454</v>
-      </c>
-      <c r="G74" s="65">
-        <f t="shared" si="12"/>
-        <v>55.11241454</v>
-      </c>
-      <c r="H74" s="64">
-        <f t="shared" si="12"/>
-        <v>73.48321939</v>
-      </c>
-      <c r="I74" s="65">
-        <f t="shared" si="12"/>
-        <v>73.48321939</v>
-      </c>
-      <c r="J74" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="K74" s="68"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="57"/>
-      <c r="B75" s="58" t="s">
-        <v>130</v>
-      </c>
-      <c r="C75" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="D75" s="64">
+      <c r="D75" s="23">
         <f>1*D61</f>
         <v>2</v>
       </c>
-      <c r="E75" s="65">
+      <c r="E75" s="28">
         <f>1*D61</f>
         <v>2</v>
       </c>
-      <c r="F75" s="64">
+      <c r="F75" s="23">
         <f>1*F61</f>
         <v>3</v>
       </c>
-      <c r="G75" s="65">
+      <c r="G75" s="28">
         <f>1*F61</f>
         <v>3</v>
       </c>
-      <c r="H75" s="64">
+      <c r="H75" s="23">
         <f>1*H61</f>
         <v>4</v>
       </c>
-      <c r="I75" s="65">
+      <c r="I75" s="28">
         <f>1*H61</f>
         <v>4</v>
       </c>
-      <c r="J75" s="37" t="s">
+      <c r="J75" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="K75" s="68"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="57"/>
-      <c r="B76" s="58" t="s">
+      <c r="K75" s="67"/>
+    </row>
+    <row r="76" spans="1:14" ht="13.2">
+      <c r="A76" s="49"/>
+      <c r="B76" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C76" s="59" t="s">
+      <c r="C76" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D76" s="64">
+      <c r="D76" s="23">
         <f>1.25*D61</f>
         <v>2.5</v>
       </c>
-      <c r="E76" s="65">
+      <c r="E76" s="28">
         <f>1.25*D61</f>
         <v>2.5</v>
       </c>
-      <c r="F76" s="64">
+      <c r="F76" s="23">
         <f>1.25*F61</f>
         <v>3.75</v>
       </c>
-      <c r="G76" s="65">
+      <c r="G76" s="28">
         <f>1.25*F61</f>
         <v>3.75</v>
       </c>
-      <c r="H76" s="64">
+      <c r="H76" s="23">
         <f>1.25*H61</f>
         <v>5</v>
       </c>
-      <c r="I76" s="65">
+      <c r="I76" s="28">
         <f>1.25*H61</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="57"/>
-      <c r="B77" s="58" t="s">
+      <c r="J76" s="52"/>
+      <c r="K76" s="52"/>
+    </row>
+    <row r="77" spans="1:14" ht="13.2">
+      <c r="A77" s="49"/>
+      <c r="B77" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C77" s="59" t="s">
+      <c r="C77" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D77" s="64">
-        <f t="shared" ref="D77:I77" si="13">D75+D76</f>
+      <c r="D77" s="23">
+        <f t="shared" ref="D77:I77" si="12">D75+D76</f>
         <v>4.5</v>
       </c>
-      <c r="E77" s="65">
+      <c r="E77" s="28">
+        <f t="shared" si="12"/>
+        <v>4.5</v>
+      </c>
+      <c r="F77" s="23">
+        <f t="shared" si="12"/>
+        <v>6.75</v>
+      </c>
+      <c r="G77" s="28">
+        <f t="shared" si="12"/>
+        <v>6.75</v>
+      </c>
+      <c r="H77" s="23">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="I77" s="28">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="J77" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="25.5" customHeight="1">
+      <c r="A78" s="49"/>
+      <c r="B78" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D78" s="23">
+        <f t="shared" ref="D78:I78" si="13">D76-D75</f>
+        <v>0.5</v>
+      </c>
+      <c r="E78" s="28">
         <f t="shared" si="13"/>
-        <v>4.5</v>
-      </c>
-      <c r="F77" s="64">
+        <v>0.5</v>
+      </c>
+      <c r="F78" s="23">
         <f t="shared" si="13"/>
-        <v>6.75</v>
-      </c>
-      <c r="G77" s="65">
+        <v>0.75</v>
+      </c>
+      <c r="G78" s="28">
         <f t="shared" si="13"/>
-        <v>6.75</v>
-      </c>
-      <c r="H77" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="H78" s="23">
         <f t="shared" si="13"/>
-        <v>9</v>
-      </c>
-      <c r="I77" s="65">
+        <v>1</v>
+      </c>
+      <c r="I78" s="28">
         <f t="shared" si="13"/>
-        <v>9</v>
-      </c>
-      <c r="J77" s="37" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="78" ht="25.5" customHeight="1">
-      <c r="A78" s="57"/>
-      <c r="B78" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="C78" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="J78" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="79.2">
+      <c r="A79" s="49"/>
+      <c r="B79" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C79" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D78" s="64">
-        <f t="shared" ref="D78:I78" si="14">D76-D75</f>
-        <v>0.5</v>
-      </c>
-      <c r="E78" s="65">
-        <f t="shared" si="14"/>
-        <v>0.5</v>
-      </c>
-      <c r="F78" s="64">
-        <f t="shared" si="14"/>
-        <v>0.75</v>
-      </c>
-      <c r="G78" s="65">
-        <f t="shared" si="14"/>
-        <v>0.75</v>
-      </c>
-      <c r="H78" s="64">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="I78" s="65">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="J78" s="37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="57"/>
-      <c r="B79" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="C79" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="D79" s="64">
+      <c r="D79" s="23">
         <f>12*D61</f>
         <v>24</v>
       </c>
-      <c r="E79" s="65">
+      <c r="E79" s="28">
         <f>10*D61</f>
         <v>20</v>
       </c>
-      <c r="F79" s="64">
-        <f t="shared" ref="F79:I79" si="15">2*F74</f>
-        <v>110.2248291</v>
-      </c>
-      <c r="G79" s="65">
-        <f t="shared" si="15"/>
-        <v>110.2248291</v>
-      </c>
-      <c r="H79" s="64">
-        <f t="shared" si="15"/>
-        <v>146.9664388</v>
-      </c>
-      <c r="I79" s="65">
-        <f t="shared" si="15"/>
-        <v>146.9664388</v>
-      </c>
-      <c r="J79" s="37" t="s">
+      <c r="F79" s="23">
+        <f t="shared" ref="F79:I79" si="14">2*F74</f>
+        <v>110.22482908903041</v>
+      </c>
+      <c r="G79" s="28">
+        <f t="shared" si="14"/>
+        <v>110.22482908903041</v>
+      </c>
+      <c r="H79" s="23">
+        <f t="shared" si="14"/>
+        <v>146.9664387853739</v>
+      </c>
+      <c r="I79" s="28">
+        <f t="shared" si="14"/>
+        <v>146.9664387853739</v>
+      </c>
+      <c r="J79" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="K79" s="69" t="s">
+      <c r="K79" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="L79" s="43"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="57"/>
-      <c r="B80" s="58" t="s">
+      <c r="L79" s="20"/>
+    </row>
+    <row r="80" spans="1:14" ht="39.6">
+      <c r="A80" s="49"/>
+      <c r="B80" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="C80" s="59" t="s">
+      <c r="C80" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D80" s="51">
+      <c r="D80" s="37">
         <f>SQRT((((D63/2) + D75)^2) - (((D63/2)*COS($D$29))^2)) + SQRT((((E63/2) + E75)^2) - (((E63/2)*COS($D$29))^2)) - (D69*SIN($D$29))</f>
-        <v>8.290418523</v>
-      </c>
-      <c r="E80" s="12"/>
-      <c r="F80" s="51">
+        <v>8.2904185226728018</v>
+      </c>
+      <c r="E80" s="38"/>
+      <c r="F80" s="37">
         <f>SQRT((F63/2 + F75)^2 - ((F63/2)*COS($D$33))^2) + SQRT((G63/2 + G75)^2 - ((G63/2)*COS($D$33))^2) - ($F$69*SIN($D$33))</f>
-        <v>12.29866801</v>
-      </c>
-      <c r="G80" s="12"/>
-      <c r="H80" s="51">
+        <v>12.298668012637499</v>
+      </c>
+      <c r="G80" s="38"/>
+      <c r="H80" s="37">
         <f>SQRT((H63/2 + H75)^2 - ((H63/2)*COS($D$33))^2) + SQRT((I63/2 + I75)^2 - ((I63/2)*COS($D$33))^2) - (H69*SIN($D$33))</f>
-        <v>16.17848353</v>
-      </c>
-      <c r="I80" s="12"/>
-      <c r="J80" s="37" t="s">
+        <v>16.178483534790757</v>
+      </c>
+      <c r="I80" s="38"/>
+      <c r="J80" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="K80" s="68"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="57"/>
-      <c r="B81" s="70" t="s">
+      <c r="K80" s="21"/>
+    </row>
+    <row r="81" spans="1:11" ht="39.6">
+      <c r="A81" s="49"/>
+      <c r="B81" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="C81" s="59" t="s">
+      <c r="C81" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="D81" s="64">
+      <c r="D81" s="37">
         <f>D80/(D72*COS(D29))</f>
-        <v>1.45586423</v>
-      </c>
-      <c r="E81" s="12"/>
-      <c r="F81" s="64">
+        <v>1.45586422963243</v>
+      </c>
+      <c r="E81" s="38"/>
+      <c r="F81" s="37">
         <f>F80/(F72*COS(F29))</f>
-        <v>1.285104398</v>
-      </c>
-      <c r="G81" s="12"/>
-      <c r="H81" s="64">
+        <v>1.285104398319419</v>
+      </c>
+      <c r="G81" s="38"/>
+      <c r="H81" s="37">
         <f>H80/(H72*COS(H29))</f>
-        <v>1.267883664</v>
-      </c>
-      <c r="I81" s="12"/>
-      <c r="J81" s="37" t="s">
+        <v>1.2678836639464164</v>
+      </c>
+      <c r="I81" s="38"/>
+      <c r="J81" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="K81" s="68"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="57"/>
-      <c r="B82" s="58" t="s">
+      <c r="K81" s="21"/>
+    </row>
+    <row r="82" spans="1:11" ht="39.6">
+      <c r="A82" s="49"/>
+      <c r="B82" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="C82" s="59" t="s">
+      <c r="C82" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="D82" s="51" t="s">
+      <c r="D82" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="E82" s="12"/>
-      <c r="F82" s="64">
+      <c r="E82" s="38"/>
+      <c r="F82" s="37">
         <f>F79/F74</f>
         <v>2</v>
       </c>
-      <c r="G82" s="12"/>
-      <c r="H82" s="64">
+      <c r="G82" s="38"/>
+      <c r="H82" s="37">
         <f>H79/H74</f>
         <v>2</v>
       </c>
-      <c r="I82" s="12"/>
-      <c r="J82" s="37" t="s">
+      <c r="I82" s="38"/>
+      <c r="J82" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="K82" s="68"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="71"/>
-      <c r="B83" s="72" t="s">
+      <c r="K82" s="21"/>
+    </row>
+    <row r="83" spans="1:11" ht="13.2">
+      <c r="A83" s="50"/>
+      <c r="B83" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="C83" s="73" t="s">
+      <c r="C83" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D83" s="74">
+      <c r="D83" s="39">
         <f>D81</f>
-        <v>1.45586423</v>
-      </c>
-      <c r="E83" s="6"/>
-      <c r="F83" s="74">
+        <v>1.45586422963243</v>
+      </c>
+      <c r="E83" s="40"/>
+      <c r="F83" s="39">
         <f>F81+F82</f>
-        <v>3.285104398</v>
-      </c>
-      <c r="G83" s="6"/>
-      <c r="H83" s="74">
+        <v>3.2851043983194188</v>
+      </c>
+      <c r="G83" s="40"/>
+      <c r="H83" s="39">
         <f>H81+H82</f>
-        <v>3.267883664</v>
-      </c>
-      <c r="I83" s="6"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="51"/>
-    </row>
-    <row r="86">
-      <c r="B86" s="43"/>
-      <c r="C86" s="46" t="s">
+        <v>3.2678836639464164</v>
+      </c>
+      <c r="I83" s="40"/>
+    </row>
+    <row r="84" spans="1:11" ht="13.2">
+      <c r="A84" s="23"/>
+    </row>
+    <row r="86" spans="1:11" ht="13.2">
+      <c r="B86" s="20"/>
+      <c r="C86" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="D86" s="47" t="s">
+      <c r="D86" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="E86" s="10"/>
-      <c r="F86" s="48" t="s">
+      <c r="E86" s="42"/>
+      <c r="F86" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="G86" s="10"/>
-      <c r="H86" s="49" t="s">
+      <c r="G86" s="42"/>
+      <c r="H86" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="I86" s="10"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="46" t="s">
+      <c r="I86" s="42"/>
+    </row>
+    <row r="87" spans="1:11" ht="13.2">
+      <c r="A87" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="B87" s="75"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="76" t="s">
+      <c r="B87" s="34"/>
+      <c r="C87" s="46"/>
+      <c r="D87" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="E87" s="76" t="s">
+      <c r="E87" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="F87" s="76" t="s">
+      <c r="F87" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="G87" s="76" t="s">
+      <c r="G87" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="H87" s="76" t="s">
+      <c r="H87" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="I87" s="76" t="s">
+      <c r="I87" s="36" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="16"/>
-      <c r="B88" s="51" t="s">
+    <row r="88" spans="1:11" ht="39.6">
+      <c r="A88" s="45"/>
+      <c r="B88" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="C88" s="59" t="s">
+      <c r="C88" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="D88" s="77">
+      <c r="D88" s="68">
         <f>D48</f>
-        <v>125.6637061</v>
-      </c>
-      <c r="E88" s="78">
+        <v>125.66370614359172</v>
+      </c>
+      <c r="E88" s="69">
         <f>D88/D56</f>
-        <v>25.49698386</v>
-      </c>
-      <c r="F88" s="77">
+        <v>25.496983855221508</v>
+      </c>
+      <c r="F88" s="68">
         <f>E88</f>
-        <v>25.49698386</v>
-      </c>
-      <c r="G88" s="78">
+        <v>25.496983855221508</v>
+      </c>
+      <c r="G88" s="69">
         <f>F88/F56</f>
-        <v>7.594846255</v>
-      </c>
-      <c r="H88" s="77">
+        <v>7.5948462547468321</v>
+      </c>
+      <c r="H88" s="68">
         <f>G88</f>
-        <v>7.594846255</v>
-      </c>
-      <c r="I88" s="78">
+        <v>7.5948462547468321</v>
+      </c>
+      <c r="I88" s="69">
         <f>H88/H56</f>
-        <v>3.127289634</v>
-      </c>
-      <c r="J88" s="37" t="s">
+        <v>3.1272896343075192</v>
+      </c>
+      <c r="J88" s="14" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="16"/>
-      <c r="B89" s="51" t="s">
+    <row r="89" spans="1:11" ht="39.6">
+      <c r="A89" s="45"/>
+      <c r="B89" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="C89" s="59" t="s">
+      <c r="C89" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="D89" s="77">
-        <f t="shared" ref="D89:I89" si="16">$D$22/D88</f>
-        <v>35.60455232</v>
-      </c>
-      <c r="E89" s="78">
-        <f t="shared" si="16"/>
-        <v>175.4795793</v>
-      </c>
-      <c r="F89" s="77">
-        <f t="shared" si="16"/>
-        <v>175.4795793</v>
-      </c>
-      <c r="G89" s="78">
-        <f t="shared" si="16"/>
-        <v>589.1100162</v>
-      </c>
-      <c r="H89" s="77">
-        <f t="shared" si="16"/>
-        <v>589.1100162</v>
-      </c>
-      <c r="I89" s="78">
-        <f t="shared" si="16"/>
-        <v>1430.695754</v>
-      </c>
-      <c r="J89" s="37" t="s">
+      <c r="D89" s="68">
+        <f t="shared" ref="D89:I89" si="15">$D$22/D88</f>
+        <v>35.604552319087915</v>
+      </c>
+      <c r="E89" s="69">
+        <f t="shared" si="15"/>
+        <v>175.4795792869333</v>
+      </c>
+      <c r="F89" s="68">
+        <f t="shared" si="15"/>
+        <v>175.4795792869333</v>
+      </c>
+      <c r="G89" s="69">
+        <f t="shared" si="15"/>
+        <v>589.11001617756176</v>
+      </c>
+      <c r="H89" s="68">
+        <f t="shared" si="15"/>
+        <v>589.11001617756176</v>
+      </c>
+      <c r="I89" s="69">
+        <f t="shared" si="15"/>
+        <v>1430.6957535740785</v>
+      </c>
+      <c r="J89" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="16"/>
-      <c r="B90" s="51" t="s">
+    <row r="90" spans="1:11" ht="13.2">
+      <c r="A90" s="45"/>
+      <c r="B90" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C90" s="59" t="s">
+      <c r="C90" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="D90" s="77">
+      <c r="D90" s="70">
         <f>D89*1000/(D63/2)</f>
-        <v>2543.182309</v>
-      </c>
-      <c r="E90" s="12"/>
-      <c r="F90" s="77">
+        <v>2543.1823085062797</v>
+      </c>
+      <c r="E90" s="71"/>
+      <c r="F90" s="70">
         <f>F89*1000/(F63/2)</f>
-        <v>8229.221437</v>
-      </c>
-      <c r="G90" s="12"/>
-      <c r="H90" s="77">
+        <v>8229.2214370043985</v>
+      </c>
+      <c r="G90" s="71"/>
+      <c r="H90" s="70">
         <f>H89*1000/(H63/2)</f>
-        <v>20720.00398</v>
-      </c>
-      <c r="I90" s="12"/>
-      <c r="J90" s="44" t="s">
+        <v>20720.003975314645</v>
+      </c>
+      <c r="I90" s="71"/>
+      <c r="J90" s="21" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="16"/>
-      <c r="B91" s="51" t="s">
+    <row r="91" spans="1:11" ht="39.6">
+      <c r="A91" s="45"/>
+      <c r="B91" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="C91" s="59" t="s">
+      <c r="C91" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="D91" s="77">
+      <c r="D91" s="70">
         <f>D90*(TAN($D$29))</f>
-        <v>1185.905387</v>
-      </c>
-      <c r="E91" s="12"/>
-      <c r="F91" s="77">
+        <v>1185.9053865407864</v>
+      </c>
+      <c r="E91" s="71"/>
+      <c r="F91" s="70">
         <f>F90*(TAN($D$33))</f>
-        <v>3837.348977</v>
-      </c>
-      <c r="G91" s="12"/>
-      <c r="H91" s="77">
+        <v>3837.3489767284332</v>
+      </c>
+      <c r="G91" s="71"/>
+      <c r="H91" s="70">
         <f>H90*(TAN($D$33))</f>
-        <v>9661.896531</v>
-      </c>
-      <c r="I91" s="12"/>
-      <c r="J91" s="37" t="s">
+        <v>9661.8965306912323</v>
+      </c>
+      <c r="I91" s="71"/>
+      <c r="J91" s="14" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="16"/>
-      <c r="B92" s="51" t="s">
+    <row r="92" spans="1:11" ht="39.6">
+      <c r="A92" s="45"/>
+      <c r="B92" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="C92" s="59" t="s">
+      <c r="C92" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="D92" s="79" t="s">
+      <c r="D92" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="E92" s="12"/>
-      <c r="F92" s="77">
+      <c r="E92" s="71"/>
+      <c r="F92" s="70">
         <f>F90*TAN($D$35)</f>
-        <v>1451.03377</v>
-      </c>
-      <c r="G92" s="12"/>
-      <c r="H92" s="77">
+        <v>1451.0337695683611</v>
+      </c>
+      <c r="G92" s="71"/>
+      <c r="H92" s="70">
         <f>H90*TAN($D$35)</f>
-        <v>3653.495741</v>
-      </c>
-      <c r="I92" s="12"/>
-      <c r="J92" s="37" t="s">
+        <v>3653.495741234623</v>
+      </c>
+      <c r="I92" s="71"/>
+      <c r="J92" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="21"/>
-      <c r="B93" s="80" t="s">
+    <row r="93" spans="1:11" ht="39.6">
+      <c r="A93" s="46"/>
+      <c r="B93" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="C93" s="73" t="s">
+      <c r="C93" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="D93" s="81">
+      <c r="D93" s="72">
         <f>D90/(COS($D$29)*COS($D$30))</f>
-        <v>2806.091203</v>
-      </c>
-      <c r="E93" s="6"/>
-      <c r="F93" s="81">
+        <v>2806.0912031018847</v>
+      </c>
+      <c r="E93" s="73"/>
+      <c r="F93" s="72">
         <f>F90/(COS(D33)*COS(D35))</f>
-        <v>9220.013953</v>
-      </c>
-      <c r="G93" s="6"/>
-      <c r="H93" s="81">
+        <v>9220.0139530490487</v>
+      </c>
+      <c r="G93" s="73"/>
+      <c r="H93" s="72">
         <f>H90/(COS(F33)*COS(F35))</f>
-        <v>20720.00398</v>
-      </c>
-      <c r="I93" s="6"/>
-      <c r="J93" s="37" t="s">
+        <v>20720.003975314645</v>
+      </c>
+      <c r="I93" s="73"/>
+      <c r="J93" s="14" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="A10:A47"/>
-    <mergeCell ref="A87:A93"/>
-    <mergeCell ref="A53:A83"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="D57:I57"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="A10:A48"/>
     <mergeCell ref="J75:J76"/>
     <mergeCell ref="K75:K76"/>
     <mergeCell ref="F69:G69"/>
@@ -3763,18 +3948,83 @@
     <mergeCell ref="H90:I90"/>
     <mergeCell ref="F91:G91"/>
     <mergeCell ref="H91:I91"/>
-    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="D57:I57"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A87:A93"/>
+    <mergeCell ref="A53:A83"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="D81:E81"/>
   </mergeCells>
   <conditionalFormatting sqref="D58:I59">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThanOrEqual">
       <formula>0.01</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58:I59">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
-      <formula>0.01</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>